--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_2_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_2_16.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>657674.4670130855</v>
+        <v>658006.8213886812</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2688149.654238721</v>
+        <v>2688149.654238724</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8966943.138461765</v>
+        <v>8966943.13846177</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7759378.137407882</v>
+        <v>7742329.814147146</v>
       </c>
     </row>
     <row r="11">
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.1186471887648</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.7480363891204</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67787267091717</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
         <v>133.5813703291298</v>
@@ -814,31 +816,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>100.3434053864689</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>152.2648500452756</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -896,19 +898,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>305.6096491809498</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>87.36875933025398</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -1060,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>192.6048312201138</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>181.6175645302744</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>285.8222677061717</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
@@ -1145,7 +1147,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1193,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>320.5127299397348</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>116.876383545772</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>53.03638470914581</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1385,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>161.4085122120583</v>
       </c>
       <c r="U11" t="n">
-        <v>108.6645753114163</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
         <v>338.6857412035168</v>
@@ -1531,25 +1533,25 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>53.03638470914581</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1607,10 +1609,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
         <v>398.5576896346209</v>
@@ -1619,10 +1621,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>409.0311279568768</v>
+        <v>320.5127299397338</v>
       </c>
       <c r="H14" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1652,19 +1654,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>124.5017199692889</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1673,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -1786,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1822,7 +1824,7 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>53.0363847091458</v>
+        <v>22.96189723698674</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1841,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>161.4085122120593</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>304.0074039714618</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,19 +1900,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2053,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U19" t="n">
-        <v>176.4925410223831</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,25 +2083,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>172.6259255050175</v>
       </c>
       <c r="G20" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>102.2151069190644</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>253.1952022697474</v>
@@ -2141,13 +2143,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2257,10 +2259,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2287,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2302,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>13.86039560144239</v>
+        <v>165.6158245190445</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -2324,19 +2326,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>350.0981669748797</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2368,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>100.4138619890259</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="24">
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>159.3149947016329</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2527,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2561,19 +2563,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>186.4717755203798</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I26" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2618,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>304.9220910887695</v>
       </c>
     </row>
     <row r="27">
@@ -2713,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2731,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>5.072982495346882</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S28" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2770,13 +2772,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>179.5986425369185</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>220.8809405715231</v>
@@ -2795,7 +2797,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2810,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>23.78349423687132</v>
+        <v>66.68447052885355</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2849,7 +2851,7 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
         <v>367.2890446813954</v>
@@ -2950,19 +2952,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>23.94874802705378</v>
       </c>
       <c r="G31" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3010,7 +3012,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>179.9570833866863</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>224.930771437862</v>
+        <v>328.2894664296309</v>
       </c>
       <c r="E32" t="n">
         <v>398.5576896346209</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>221.2655964161775</v>
@@ -3086,13 +3088,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3187,19 +3189,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>1.836713037499251</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>20.91946317727882</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H34" t="n">
         <v>153.923765528121</v>
@@ -3241,10 +3243,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>140.7311431027215</v>
+        <v>141.287080010985</v>
       </c>
       <c r="C35" t="n">
         <v>389.2437464820987</v>
@@ -3314,10 +3316,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3329,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
-        <v>103.881269554817</v>
+        <v>164.7457707872007</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3475,7 +3477,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3487,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -3500,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3515,10 +3517,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H38" t="n">
-        <v>318.9744712724925</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I38" t="n">
         <v>136.9537457384598</v>
@@ -3548,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>164.8484195083599</v>
@@ -3566,7 +3568,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>19.51823875223267</v>
       </c>
       <c r="Y38" t="n">
         <v>392.5258019886049</v>
@@ -3676,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>66.03149870010071</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
         <v>263.319551727384</v>
@@ -3724,7 +3726,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>147.8279795613425</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3743,10 +3745,10 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
         <v>412.725494085322</v>
@@ -3755,7 +3757,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3785,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>276.2069317612807</v>
+        <v>51.72688881902223</v>
       </c>
     </row>
     <row r="42">
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3910,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>99.90054216030082</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>122.6619794737488</v>
+        <v>11.60727779164018</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3974,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
         <v>381.5867174954989</v>
@@ -3986,16 +3988,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>27.43605840229047</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>221.2655964161775</v>
+        <v>108.8247535352256</v>
       </c>
       <c r="U44" t="n">
         <v>253.1952022697474</v>
@@ -4037,13 +4039,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4076,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I45" t="n">
-        <v>48.89338144820825</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>11.61260049965533</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4189,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>66.03149870010103</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>964.2667172894805</v>
+        <v>825.9296003819453</v>
       </c>
       <c r="C2" t="n">
-        <v>571.091215792411</v>
+        <v>432.7540988848759</v>
       </c>
       <c r="D2" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E2" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F2" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G2" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H2" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I2" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J2" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K2" t="n">
         <v>406.2953261290054</v>
@@ -4343,37 +4345,37 @@
         <v>1973.427801529577</v>
       </c>
       <c r="O2" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P2" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R2" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S2" t="n">
-        <v>2186.121604303344</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T2" t="n">
-        <v>1962.62100186276</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U2" t="n">
-        <v>1706.868272297359</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V2" t="n">
-        <v>1364.761463000877</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W2" t="n">
-        <v>1364.761463000877</v>
+        <v>2012.367660239684</v>
       </c>
       <c r="X2" t="n">
-        <v>1364.761463000877</v>
+        <v>1622.915055172741</v>
       </c>
       <c r="Y2" t="n">
-        <v>1364.761463000877</v>
+        <v>1226.424346093342</v>
       </c>
     </row>
     <row r="3">
@@ -4392,43 +4394,43 @@
         <v>565.9357554231472</v>
       </c>
       <c r="E3" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340349</v>
       </c>
       <c r="F3" t="n">
-        <v>305.0574584171666</v>
+        <v>305.0574584171667</v>
       </c>
       <c r="G3" t="n">
         <v>184.9976404890311</v>
       </c>
       <c r="H3" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I3" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154358</v>
       </c>
       <c r="J3" t="n">
-        <v>54.70361680265978</v>
+        <v>47.31297010154358</v>
       </c>
       <c r="K3" t="n">
-        <v>374.4427628648862</v>
+        <v>47.31297010154358</v>
       </c>
       <c r="L3" t="n">
-        <v>858.0088487631995</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M3" t="n">
-        <v>858.0088487631995</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N3" t="n">
-        <v>1443.506853769802</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O3" t="n">
-        <v>1960.027136360783</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P3" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R3" t="n">
         <v>2341.731461975244</v>
@@ -4462,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C4" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="D4" t="n">
-        <v>47.31297010154361</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="E4" t="n">
-        <v>47.31297010154361</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F4" t="n">
-        <v>47.31297010154361</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G4" t="n">
-        <v>47.31297010154361</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H4" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I4" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J4" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K4" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L4" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M4" t="n">
         <v>479.5672294235493</v>
@@ -4510,28 +4512,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R4" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S4" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T4" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U4" t="n">
-        <v>232.5209887928449</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V4" t="n">
-        <v>232.5209887928449</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W4" t="n">
-        <v>232.5209887928449</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X4" t="n">
-        <v>232.5209887928449</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y4" t="n">
-        <v>232.5209887928449</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>464.2074085715658</v>
+        <v>1568.663050286384</v>
       </c>
       <c r="C5" t="n">
-        <v>464.2074085715658</v>
+        <v>1175.487548789314</v>
       </c>
       <c r="D5" t="n">
-        <v>464.2074085715658</v>
+        <v>1175.487548789314</v>
       </c>
       <c r="E5" t="n">
-        <v>464.2074085715658</v>
+        <v>772.9040239058586</v>
       </c>
       <c r="F5" t="n">
-        <v>47.31297010154361</v>
+        <v>356.0095854358364</v>
       </c>
       <c r="G5" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H5" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I5" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J5" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K5" t="n">
-        <v>406.2953261290054</v>
+        <v>173.6308686433306</v>
       </c>
       <c r="L5" t="n">
-        <v>899.6156178475343</v>
+        <v>666.9511603618595</v>
       </c>
       <c r="M5" t="n">
-        <v>1445.616517892115</v>
+        <v>1212.95206040644</v>
       </c>
       <c r="N5" t="n">
-        <v>1973.427801529577</v>
+        <v>1740.763344043902</v>
       </c>
       <c r="O5" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="P5" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q5" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R5" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S5" t="n">
-        <v>2277.397233026419</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T5" t="n">
-        <v>2277.397233026419</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U5" t="n">
-        <v>2021.644503461017</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V5" t="n">
-        <v>2021.644503461017</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W5" t="n">
-        <v>1650.645468429305</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X5" t="n">
-        <v>1261.192863362362</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Y5" t="n">
-        <v>864.7021542829627</v>
+        <v>1969.157795997781</v>
       </c>
     </row>
     <row r="6">
@@ -4638,28 +4640,28 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H6" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963203</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J6" t="n">
-        <v>160.427952321271</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K6" t="n">
-        <v>272.5108437565964</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L6" t="n">
-        <v>272.5108437565964</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="M6" t="n">
-        <v>858.0088487631986</v>
+        <v>952.550121170372</v>
       </c>
       <c r="N6" t="n">
-        <v>1443.506853769801</v>
+        <v>1538.048126176974</v>
       </c>
       <c r="O6" t="n">
-        <v>1960.027136360782</v>
+        <v>2054.568408767955</v>
       </c>
       <c r="P6" t="n">
         <v>2365.648505077179</v>
@@ -4699,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>202.7915211400496</v>
+        <v>202.8717822423411</v>
       </c>
       <c r="C7" t="n">
-        <v>202.7915211400496</v>
+        <v>202.8717822423411</v>
       </c>
       <c r="D7" t="n">
-        <v>202.7915211400496</v>
+        <v>202.8717822423411</v>
       </c>
       <c r="E7" t="n">
-        <v>202.7915211400496</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F7" t="n">
-        <v>202.7915211400496</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G7" t="n">
-        <v>202.7915211400496</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H7" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I7" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J7" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K7" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L7" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M7" t="n">
         <v>479.5672294235493</v>
@@ -4747,28 +4749,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R7" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S7" t="n">
-        <v>754.2096580773245</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T7" t="n">
-        <v>754.2096580773245</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="U7" t="n">
-        <v>468.7708663192254</v>
+        <v>202.8717822423411</v>
       </c>
       <c r="V7" t="n">
-        <v>202.7915211400496</v>
+        <v>202.8717822423411</v>
       </c>
       <c r="W7" t="n">
-        <v>202.7915211400496</v>
+        <v>202.8717822423411</v>
       </c>
       <c r="X7" t="n">
-        <v>202.7915211400496</v>
+        <v>202.8717822423411</v>
       </c>
       <c r="Y7" t="n">
-        <v>202.7915211400496</v>
+        <v>202.8717822423411</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1645.407563735423</v>
+        <v>1568.663050286384</v>
       </c>
       <c r="C8" t="n">
-        <v>1252.232062238354</v>
+        <v>1568.663050286384</v>
       </c>
       <c r="D8" t="n">
-        <v>866.7909334550213</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E8" t="n">
-        <v>464.2074085715658</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F8" t="n">
-        <v>47.31297010154361</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I8" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K8" t="n">
         <v>406.2953261290054</v>
@@ -4814,40 +4816,40 @@
         <v>1445.616517892115</v>
       </c>
       <c r="N8" t="n">
-        <v>1925.608904184852</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W8" t="n">
-        <v>2041.898272814822</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X8" t="n">
-        <v>2041.898272814822</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Y8" t="n">
-        <v>1645.407563735423</v>
+        <v>1969.157795997781</v>
       </c>
     </row>
     <row r="9">
@@ -4875,31 +4877,31 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H9" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K9" t="n">
-        <v>367.0521161637701</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L9" t="n">
-        <v>850.6182020620834</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M9" t="n">
-        <v>1436.116207068686</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N9" t="n">
-        <v>1436.116207068686</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O9" t="n">
-        <v>1952.636489659666</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P9" t="n">
-        <v>2358.257858376064</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.648505077179</v>
@@ -4936,37 +4938,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K10" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L10" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M10" t="n">
         <v>479.5672294235493</v>
@@ -4984,28 +4986,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="U10" t="n">
-        <v>830.7030395665587</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="V10" t="n">
-        <v>564.7236943873829</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="W10" t="n">
-        <v>281.3932923185605</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="X10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>756.8371493183852</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C11" t="n">
-        <v>756.8371493183852</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D11" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E11" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F11" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G11" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H11" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I11" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J11" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K11" t="n">
-        <v>47.31297010154361</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L11" t="n">
-        <v>540.6332618200724</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M11" t="n">
-        <v>1086.634161864653</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N11" t="n">
-        <v>1614.445445502115</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O11" t="n">
-        <v>2054.485046394444</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T11" t="n">
-        <v>2365.64850507718</v>
+        <v>2202.609603852878</v>
       </c>
       <c r="U11" t="n">
-        <v>2255.886307792921</v>
+        <v>1946.856874287477</v>
       </c>
       <c r="V11" t="n">
-        <v>1913.77949849644</v>
+        <v>1604.750064990995</v>
       </c>
       <c r="W11" t="n">
-        <v>1542.780463464727</v>
+        <v>1233.751029959283</v>
       </c>
       <c r="X11" t="n">
-        <v>1153.327858397784</v>
+        <v>844.2984248923394</v>
       </c>
       <c r="Y11" t="n">
-        <v>756.8371493183852</v>
+        <v>447.8077158129405</v>
       </c>
     </row>
     <row r="12">
@@ -5094,34 +5096,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C12" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D12" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E12" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F12" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G12" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H12" t="n">
-        <v>96.70022408963223</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I12" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J12" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K12" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L12" t="n">
         <v>530.8790559998569</v>
@@ -5136,25 +5138,25 @@
         <v>2218.395348604042</v>
       </c>
       <c r="P12" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q12" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R12" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S12" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T12" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U12" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V12" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W12" t="n">
         <v>1367.096582257017</v>
@@ -5163,7 +5165,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y12" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="13">
@@ -5173,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D13" t="n">
-        <v>847.4030175052487</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E13" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F13" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G13" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H13" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I13" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J13" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K13" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L13" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M13" t="n">
         <v>479.5672294235493</v>
@@ -5221,28 +5223,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R13" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S13" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T13" t="n">
-        <v>948.7599926430961</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="U13" t="n">
-        <v>948.7599926430961</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="V13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="W13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="X13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1604.036739400527</v>
+        <v>1969.157795997781</v>
       </c>
       <c r="C14" t="n">
-        <v>1604.036739400527</v>
+        <v>1575.982294500711</v>
       </c>
       <c r="D14" t="n">
-        <v>1604.036739400527</v>
+        <v>1190.541165717379</v>
       </c>
       <c r="E14" t="n">
-        <v>1201.453214517072</v>
+        <v>787.9576408339233</v>
       </c>
       <c r="F14" t="n">
-        <v>784.5587760470498</v>
+        <v>371.063202363901</v>
       </c>
       <c r="G14" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H14" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I14" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J14" t="n">
-        <v>179.1178642627589</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K14" t="n">
-        <v>538.1002202902207</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L14" t="n">
-        <v>1031.420512008749</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M14" t="n">
-        <v>1577.42141205333</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N14" t="n">
-        <v>1577.42141205333</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O14" t="n">
-        <v>2017.461012945658</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R14" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S14" t="n">
-        <v>2201.89627826241</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T14" t="n">
-        <v>2201.89627826241</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U14" t="n">
-        <v>1946.143548697009</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V14" t="n">
-        <v>1604.036739400527</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W14" t="n">
-        <v>1604.036739400527</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X14" t="n">
-        <v>1604.036739400527</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Y14" t="n">
-        <v>1604.036739400527</v>
+        <v>1969.157795997781</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C15" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D15" t="n">
-        <v>565.9357554231478</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E15" t="n">
-        <v>429.4892645340356</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F15" t="n">
-        <v>305.0574584171674</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G15" t="n">
-        <v>184.9976404890318</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H15" t="n">
-        <v>96.70022408963275</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I15" t="n">
-        <v>47.31297010154434</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J15" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K15" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L15" t="n">
-        <v>272.5108437565973</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M15" t="n">
-        <v>858.0088487631995</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N15" t="n">
-        <v>1443.506853769802</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O15" t="n">
-        <v>1960.027136360783</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P15" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q15" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R15" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S15" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T15" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U15" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V15" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W15" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X15" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y15" t="n">
-        <v>998.4752876825366</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="16">
@@ -5410,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="C16" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="D16" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="E16" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="F16" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="G16" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="H16" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="I16" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K16" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L16" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M16" t="n">
         <v>479.5672294235493</v>
@@ -5470,16 +5472,16 @@
         <v>100.8850758683575</v>
       </c>
       <c r="V16" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="W16" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="X16" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="Y16" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
     </row>
     <row r="17">
@@ -5489,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>210.3518713258459</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="C17" t="n">
-        <v>47.31297010154361</v>
+        <v>1972.47300358011</v>
       </c>
       <c r="D17" t="n">
-        <v>47.31297010154361</v>
+        <v>1587.031874796778</v>
       </c>
       <c r="E17" t="n">
-        <v>47.31297010154361</v>
+        <v>1184.448349913322</v>
       </c>
       <c r="F17" t="n">
-        <v>47.31297010154361</v>
+        <v>767.5539114432999</v>
       </c>
       <c r="G17" t="n">
-        <v>47.31297010154361</v>
+        <v>354.391155931303</v>
       </c>
       <c r="H17" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I17" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J17" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K17" t="n">
         <v>406.2953261290054</v>
@@ -5528,37 +5530,37 @@
         <v>1973.427801529577</v>
       </c>
       <c r="O17" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P17" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q17" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R17" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S17" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T17" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U17" t="n">
-        <v>2109.895775511779</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V17" t="n">
-        <v>1767.788966215297</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W17" t="n">
-        <v>1396.789931183585</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X17" t="n">
-        <v>1007.337326116642</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Y17" t="n">
-        <v>610.8466170372428</v>
+        <v>2365.648505077179</v>
       </c>
     </row>
     <row r="18">
@@ -5568,67 +5570,67 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C18" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D18" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E18" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F18" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G18" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H18" t="n">
-        <v>96.70022408963223</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I18" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J18" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K18" t="n">
-        <v>367.0521161637701</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L18" t="n">
-        <v>850.6182020620834</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M18" t="n">
-        <v>1209.141762214911</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N18" t="n">
-        <v>1209.141762214911</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O18" t="n">
-        <v>1725.662044805892</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P18" t="n">
-        <v>2131.28341352229</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q18" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R18" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S18" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T18" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U18" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V18" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W18" t="n">
         <v>1367.096582257017</v>
@@ -5637,7 +5639,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y18" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="19">
@@ -5647,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K19" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L19" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M19" t="n">
         <v>479.5672294235493</v>
@@ -5701,22 +5703,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T19" t="n">
-        <v>948.7599926430961</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U19" t="n">
-        <v>770.4846986810929</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V19" t="n">
-        <v>504.5053535019172</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W19" t="n">
-        <v>504.5053535019172</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="X19" t="n">
-        <v>270.4250312849002</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1690.637170062939</v>
+        <v>1000.299222104185</v>
       </c>
       <c r="C20" t="n">
-        <v>1690.637170062939</v>
+        <v>607.1237206071157</v>
       </c>
       <c r="D20" t="n">
-        <v>1305.196041279607</v>
+        <v>221.6825918237835</v>
       </c>
       <c r="E20" t="n">
-        <v>902.6125163961515</v>
+        <v>221.6825918237835</v>
       </c>
       <c r="F20" t="n">
-        <v>902.6125163961515</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G20" t="n">
-        <v>489.4497608841546</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H20" t="n">
-        <v>165.3667104506453</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358934</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M20" t="n">
-        <v>1605.072448403515</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040977</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O20" t="n">
-        <v>2572.923332933306</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P20" t="n">
-        <v>2921.110825064828</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R20" t="n">
-        <v>3067.963471491298</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S20" t="n">
-        <v>2901.449916432349</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T20" t="n">
-        <v>2677.949313991765</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U20" t="n">
-        <v>2422.196584426364</v>
+        <v>2109.895775511778</v>
       </c>
       <c r="V20" t="n">
-        <v>2080.089775129883</v>
+        <v>1767.788966215297</v>
       </c>
       <c r="W20" t="n">
-        <v>2080.089775129883</v>
+        <v>1396.789931183584</v>
       </c>
       <c r="X20" t="n">
-        <v>1690.637170062939</v>
+        <v>1396.789931183584</v>
       </c>
       <c r="Y20" t="n">
-        <v>1690.637170062939</v>
+        <v>1000.299222104185</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>861.4851108441464</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C21" t="n">
-        <v>710.8308804042387</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D21" t="n">
-        <v>580.741913025719</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E21" t="n">
-        <v>444.2954221366068</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F21" t="n">
-        <v>319.8636160197386</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G21" t="n">
-        <v>199.803798091603</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H21" t="n">
-        <v>111.5063816922039</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I21" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L21" t="n">
-        <v>174.7633905351325</v>
+        <v>272.5108437565968</v>
       </c>
       <c r="M21" t="n">
-        <v>802.5350401618138</v>
+        <v>858.0088487631988</v>
       </c>
       <c r="N21" t="n">
-        <v>1458.313011372373</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O21" t="n">
-        <v>1974.833293963354</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q21" t="n">
-        <v>2380.454662679751</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R21" t="n">
-        <v>2356.537619577816</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S21" t="n">
-        <v>2221.606942477685</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T21" t="n">
-        <v>2044.623130676593</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U21" t="n">
-        <v>1834.559987355235</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V21" t="n">
-        <v>1612.019985726302</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W21" t="n">
-        <v>1381.902739859589</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X21" t="n">
-        <v>1192.595662209601</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y21" t="n">
-        <v>1013.281445285108</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>225.5918232409357</v>
+        <v>373.1512011330396</v>
       </c>
       <c r="C22" t="n">
-        <v>225.5918232409357</v>
+        <v>202.9460831990288</v>
       </c>
       <c r="D22" t="n">
-        <v>225.5918232409357</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E22" t="n">
-        <v>225.5918232409357</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F22" t="n">
-        <v>225.5918232409357</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G22" t="n">
-        <v>225.5918232409357</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H22" t="n">
-        <v>225.5918232409357</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I22" t="n">
-        <v>92.49739787801357</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N22" t="n">
-        <v>677.5630210573304</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O22" t="n">
-        <v>840.2677880990384</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P22" t="n">
-        <v>960.1439538756169</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q22" t="n">
-        <v>963.5661502456679</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R22" t="n">
-        <v>963.5661502456679</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S22" t="n">
-        <v>760.7500664282172</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T22" t="n">
-        <v>525.0310145964513</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U22" t="n">
-        <v>239.5922228383523</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V22" t="n">
-        <v>239.5922228383523</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W22" t="n">
-        <v>239.5922228383523</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X22" t="n">
-        <v>225.5918232409357</v>
+        <v>781.4712810076976</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.5918232409357</v>
+        <v>558.3592198243409</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1935.347758983887</v>
+        <v>1798.55083824553</v>
       </c>
       <c r="C23" t="n">
-        <v>1542.172257486817</v>
+        <v>1405.375336748461</v>
       </c>
       <c r="D23" t="n">
-        <v>1156.731128703485</v>
+        <v>1019.934207965129</v>
       </c>
       <c r="E23" t="n">
-        <v>1156.731128703485</v>
+        <v>617.350683081673</v>
       </c>
       <c r="F23" t="n">
-        <v>739.8366902334629</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="G23" t="n">
-        <v>386.2021781376249</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="H23" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411553</v>
+        <v>62.1191277041155</v>
       </c>
       <c r="J23" t="n">
         <v>206.7689006129436</v>
@@ -6002,37 +6004,37 @@
         <v>2132.883732040977</v>
       </c>
       <c r="O23" t="n">
-        <v>2572.923332933306</v>
+        <v>2572.923332933305</v>
       </c>
       <c r="P23" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="R23" t="n">
-        <v>3067.963471491298</v>
+        <v>3067.963471491297</v>
       </c>
       <c r="S23" t="n">
-        <v>2901.449916432349</v>
+        <v>3067.963471491297</v>
       </c>
       <c r="T23" t="n">
-        <v>2677.949313991765</v>
+        <v>3067.963471491297</v>
       </c>
       <c r="U23" t="n">
-        <v>2677.949313991765</v>
+        <v>3067.963471491297</v>
       </c>
       <c r="V23" t="n">
-        <v>2335.842504695284</v>
+        <v>3067.963471491297</v>
       </c>
       <c r="W23" t="n">
-        <v>2335.842504695284</v>
+        <v>2696.964436459585</v>
       </c>
       <c r="X23" t="n">
-        <v>2335.842504695284</v>
+        <v>2595.536293036326</v>
       </c>
       <c r="Y23" t="n">
-        <v>2335.842504695284</v>
+        <v>2199.045583956927</v>
       </c>
     </row>
     <row r="24">
@@ -6051,10 +6053,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E24" t="n">
-        <v>444.2954221366068</v>
+        <v>444.2954221366067</v>
       </c>
       <c r="F24" t="n">
-        <v>319.8636160197386</v>
+        <v>319.8636160197385</v>
       </c>
       <c r="G24" t="n">
         <v>199.803798091603</v>
@@ -6063,28 +6065,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I24" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="K24" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="L24" t="n">
         <v>545.6852136024288</v>
       </c>
       <c r="M24" t="n">
-        <v>568.1699486069232</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P24" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="C25" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="D25" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="E25" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="F25" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="G25" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="H25" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="I25" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="K25" t="n">
         <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>308.0818086878571</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>494.3733870261211</v>
       </c>
       <c r="N25" t="n">
         <v>677.5630210573304</v>
@@ -6175,22 +6177,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T25" t="n">
-        <v>963.5661502456679</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U25" t="n">
-        <v>963.5661502456679</v>
+        <v>611.4288749521136</v>
       </c>
       <c r="V25" t="n">
-        <v>963.5661502456679</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W25" t="n">
-        <v>680.2357481768456</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="X25" t="n">
-        <v>446.1554259598287</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="Y25" t="n">
-        <v>223.043364776472</v>
+        <v>62.11912770411551</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1491.511254134026</v>
+        <v>2397.459527283501</v>
       </c>
       <c r="C26" t="n">
-        <v>1098.335752636957</v>
+        <v>2004.284025786432</v>
       </c>
       <c r="D26" t="n">
-        <v>712.8946238536246</v>
+        <v>1618.8428970031</v>
       </c>
       <c r="E26" t="n">
-        <v>712.8946238536246</v>
+        <v>1216.259372119644</v>
       </c>
       <c r="F26" t="n">
-        <v>524.5392950451601</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="G26" t="n">
-        <v>524.5392950451601</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H26" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I26" t="n">
         <v>62.11912770411553</v>
@@ -6248,28 +6250,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R26" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S26" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T26" t="n">
-        <v>2677.949313991765</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U26" t="n">
-        <v>2677.949313991765</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V26" t="n">
-        <v>2677.949313991765</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W26" t="n">
-        <v>2677.949313991765</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X26" t="n">
-        <v>2288.496708924822</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="Y26" t="n">
-        <v>1892.005999845423</v>
+        <v>2797.954272994898</v>
       </c>
     </row>
     <row r="27">
@@ -6306,19 +6308,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K27" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L27" t="n">
-        <v>545.6852136024288</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M27" t="n">
-        <v>802.5350401618138</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N27" t="n">
-        <v>1458.313011372373</v>
+        <v>2148.973980501895</v>
       </c>
       <c r="O27" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P27" t="n">
         <v>2380.454662679751</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2374.714480598234</v>
+        <v>67.24335244689016</v>
       </c>
       <c r="C28" t="n">
-        <v>2204.509362664224</v>
+        <v>67.24335244689016</v>
       </c>
       <c r="D28" t="n">
-        <v>2204.509362664224</v>
+        <v>67.24335244689016</v>
       </c>
       <c r="E28" t="n">
-        <v>2204.509362664224</v>
+        <v>67.24335244689016</v>
       </c>
       <c r="F28" t="n">
-        <v>2204.509362664224</v>
+        <v>67.24335244689016</v>
       </c>
       <c r="G28" t="n">
-        <v>2204.509362664224</v>
+        <v>67.24335244689016</v>
       </c>
       <c r="H28" t="n">
-        <v>2204.509362664224</v>
+        <v>67.24335244689016</v>
       </c>
       <c r="I28" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J28" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K28" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L28" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M28" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N28" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O28" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P28" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q28" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R28" t="n">
-        <v>2982.055395838353</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="S28" t="n">
-        <v>2779.239312020903</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="T28" t="n">
-        <v>2779.239312020903</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="U28" t="n">
-        <v>2779.239312020903</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="V28" t="n">
-        <v>2779.239312020903</v>
+        <v>573.6858156990692</v>
       </c>
       <c r="W28" t="n">
-        <v>2779.239312020903</v>
+        <v>290.3554136302468</v>
       </c>
       <c r="X28" t="n">
-        <v>2597.826541781591</v>
+        <v>290.3554136302468</v>
       </c>
       <c r="Y28" t="n">
-        <v>2374.714480598234</v>
+        <v>67.24335244689016</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>864.7594895369125</v>
+        <v>522.652680240431</v>
       </c>
       <c r="C29" t="n">
-        <v>471.5839880398431</v>
+        <v>129.4771787433615</v>
       </c>
       <c r="D29" t="n">
-        <v>86.1428592565108</v>
+        <v>129.4771787433615</v>
       </c>
       <c r="E29" t="n">
-        <v>86.1428592565108</v>
+        <v>129.4771787433615</v>
       </c>
       <c r="F29" t="n">
-        <v>86.1428592565108</v>
+        <v>129.4771787433615</v>
       </c>
       <c r="G29" t="n">
-        <v>86.1428592565108</v>
+        <v>129.4771787433615</v>
       </c>
       <c r="H29" t="n">
-        <v>86.1428592565108</v>
+        <v>129.4771787433615</v>
       </c>
       <c r="I29" t="n">
         <v>62.11912770411553</v>
@@ -6497,16 +6499,16 @@
         <v>2422.196584426364</v>
       </c>
       <c r="V29" t="n">
-        <v>2422.196584426364</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="W29" t="n">
-        <v>2051.197549394652</v>
+        <v>1709.09074009817</v>
       </c>
       <c r="X29" t="n">
-        <v>1661.744944327708</v>
+        <v>1319.638135031227</v>
       </c>
       <c r="Y29" t="n">
-        <v>1265.254235248309</v>
+        <v>923.1474259518279</v>
       </c>
     </row>
     <row r="30">
@@ -6552,7 +6554,7 @@
         <v>1173.45686322911</v>
       </c>
       <c r="N30" t="n">
-        <v>1458.313011372373</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O30" t="n">
         <v>1974.833293963354</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2372.763416564778</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="C31" t="n">
-        <v>2372.763416564778</v>
+        <v>241.9428953743824</v>
       </c>
       <c r="D31" t="n">
-        <v>2372.763416564778</v>
+        <v>86.30978227689712</v>
       </c>
       <c r="E31" t="n">
-        <v>2372.763416564778</v>
+        <v>86.30978227689712</v>
       </c>
       <c r="F31" t="n">
-        <v>2372.763416564778</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K31" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L31" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M31" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N31" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O31" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P31" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q31" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R31" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S31" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T31" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U31" t="n">
-        <v>2820.517593447677</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V31" t="n">
-        <v>2554.538248268502</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W31" t="n">
-        <v>2372.763416564778</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="X31" t="n">
-        <v>2372.763416564778</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="Y31" t="n">
-        <v>2372.763416564778</v>
+        <v>412.1480133083932</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1984.382813342819</v>
+        <v>2481.961037053796</v>
       </c>
       <c r="C32" t="n">
-        <v>1984.382813342819</v>
+        <v>2088.785535556727</v>
       </c>
       <c r="D32" t="n">
         <v>1757.180013910635</v>
@@ -6725,25 +6727,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S32" t="n">
-        <v>2939.442830146827</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T32" t="n">
-        <v>2715.942227706244</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="U32" t="n">
-        <v>2715.942227706244</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="V32" t="n">
-        <v>2373.835418409762</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="W32" t="n">
-        <v>2373.835418409762</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="X32" t="n">
-        <v>1984.382813342819</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="Y32" t="n">
-        <v>1984.382813342819</v>
+        <v>2882.455782765193</v>
       </c>
     </row>
     <row r="33">
@@ -6783,7 +6785,7 @@
         <v>62.11912770411553</v>
       </c>
       <c r="L33" t="n">
-        <v>545.6852136024288</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M33" t="n">
         <v>802.5350401618138</v>
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>697.5868050664922</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="C34" t="n">
-        <v>527.3816871324814</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="D34" t="n">
-        <v>527.3816871324814</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="E34" t="n">
-        <v>371.8228749916839</v>
+        <v>676.2720927931252</v>
       </c>
       <c r="F34" t="n">
-        <v>371.8228749916839</v>
+        <v>518.9461580060981</v>
       </c>
       <c r="G34" t="n">
         <v>350.6921041055436</v>
@@ -6889,19 +6891,19 @@
         <v>963.5661502456679</v>
       </c>
       <c r="U34" t="n">
-        <v>963.5661502456679</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V34" t="n">
-        <v>697.5868050664922</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="W34" t="n">
-        <v>697.5868050664922</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="X34" t="n">
-        <v>697.5868050664922</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="Y34" t="n">
-        <v>697.5868050664922</v>
+        <v>678.1273584875689</v>
       </c>
     </row>
     <row r="35">
@@ -6962,25 +6964,25 @@
         <v>3067.963471491298</v>
       </c>
       <c r="S35" t="n">
-        <v>2901.449916432349</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T35" t="n">
-        <v>2677.949313991765</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="U35" t="n">
-        <v>2677.949313991765</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="V35" t="n">
-        <v>2677.949313991765</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="W35" t="n">
-        <v>2677.949313991765</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="X35" t="n">
-        <v>2677.949313991765</v>
+        <v>2678.510866424355</v>
       </c>
       <c r="Y35" t="n">
-        <v>2677.949313991765</v>
+        <v>2678.510866424355</v>
       </c>
     </row>
     <row r="36">
@@ -7069,7 +7071,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>167.0497030120115</v>
+        <v>228.5289971861364</v>
       </c>
       <c r="C37" t="n">
         <v>62.11912770411553</v>
@@ -7123,22 +7125,22 @@
         <v>636.8490770607943</v>
       </c>
       <c r="T37" t="n">
-        <v>401.1300252290284</v>
+        <v>636.8490770607943</v>
       </c>
       <c r="U37" t="n">
-        <v>401.1300252290284</v>
+        <v>636.8490770607943</v>
       </c>
       <c r="V37" t="n">
-        <v>401.1300252290284</v>
+        <v>636.8490770607943</v>
       </c>
       <c r="W37" t="n">
-        <v>401.1300252290284</v>
+        <v>636.8490770607943</v>
       </c>
       <c r="X37" t="n">
-        <v>167.0497030120115</v>
+        <v>636.8490770607943</v>
       </c>
       <c r="Y37" t="n">
-        <v>167.0497030120115</v>
+        <v>413.7370158774377</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>522.652680240431</v>
+        <v>1330.877552054226</v>
       </c>
       <c r="C38" t="n">
-        <v>522.652680240431</v>
+        <v>937.702050557157</v>
       </c>
       <c r="D38" t="n">
-        <v>522.652680240431</v>
+        <v>937.702050557157</v>
       </c>
       <c r="E38" t="n">
-        <v>522.652680240431</v>
+        <v>937.702050557157</v>
       </c>
       <c r="F38" t="n">
-        <v>522.652680240431</v>
+        <v>937.702050557157</v>
       </c>
       <c r="G38" t="n">
-        <v>522.652680240431</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H38" t="n">
         <v>200.4562446116507</v>
@@ -7196,28 +7198,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>2901.449916432349</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T38" t="n">
-        <v>2677.949313991765</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="U38" t="n">
-        <v>2422.196584426364</v>
+        <v>2460.189498140842</v>
       </c>
       <c r="V38" t="n">
-        <v>2080.089775129883</v>
+        <v>2118.082688844361</v>
       </c>
       <c r="W38" t="n">
-        <v>1709.09074009817</v>
+        <v>1747.083653812648</v>
       </c>
       <c r="X38" t="n">
-        <v>1319.638135031227</v>
+        <v>1727.368261133625</v>
       </c>
       <c r="Y38" t="n">
-        <v>923.1474259518279</v>
+        <v>1330.877552054226</v>
       </c>
     </row>
     <row r="39">
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>62.11912770411553</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="C40" t="n">
-        <v>62.11912770411553</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="D40" t="n">
-        <v>62.11912770411553</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="E40" t="n">
-        <v>62.11912770411553</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="F40" t="n">
-        <v>62.11912770411553</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="G40" t="n">
-        <v>62.11912770411553</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="H40" t="n">
         <v>62.11912770411553</v>
@@ -7357,25 +7359,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S40" t="n">
-        <v>760.7500664282172</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T40" t="n">
-        <v>760.7500664282172</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U40" t="n">
-        <v>760.7500664282172</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V40" t="n">
-        <v>494.7707212490415</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W40" t="n">
-        <v>211.4403191802191</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X40" t="n">
-        <v>62.11912770411553</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="Y40" t="n">
-        <v>62.11912770411553</v>
+        <v>128.8176112395708</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1285.351823183204</v>
+        <v>2397.459527283501</v>
       </c>
       <c r="C41" t="n">
-        <v>892.1763216861347</v>
+        <v>2004.284025786432</v>
       </c>
       <c r="D41" t="n">
-        <v>892.1763216861347</v>
+        <v>1618.8428970031</v>
       </c>
       <c r="E41" t="n">
-        <v>892.1763216861347</v>
+        <v>1216.259372119644</v>
       </c>
       <c r="F41" t="n">
-        <v>475.2818832161124</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="G41" t="n">
-        <v>62.11912770411553</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H41" t="n">
         <v>62.11912770411553</v>
@@ -7433,28 +7435,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T41" t="n">
-        <v>2677.949313991765</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U41" t="n">
-        <v>2677.949313991765</v>
+        <v>2850.203655640375</v>
       </c>
       <c r="V41" t="n">
-        <v>2335.842504695284</v>
+        <v>2850.203655640375</v>
       </c>
       <c r="W41" t="n">
-        <v>1964.843469663571</v>
+        <v>2850.203655640375</v>
       </c>
       <c r="X41" t="n">
-        <v>1964.843469663571</v>
+        <v>2850.203655640375</v>
       </c>
       <c r="Y41" t="n">
-        <v>1685.846568894601</v>
+        <v>2797.954272994898</v>
       </c>
     </row>
     <row r="42">
@@ -7491,19 +7493,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L42" t="n">
-        <v>865.4243596646552</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M42" t="n">
-        <v>1208.156408878212</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N42" t="n">
-        <v>1863.93438008877</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O42" t="n">
-        <v>2380.454662679751</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P42" t="n">
         <v>2380.454662679751</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>318.50731728838</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C43" t="n">
-        <v>318.50731728838</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D43" t="n">
-        <v>318.50731728838</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E43" t="n">
-        <v>318.50731728838</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F43" t="n">
-        <v>318.50731728838</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G43" t="n">
-        <v>217.5976787426216</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H43" t="n">
         <v>62.11912770411553</v>
@@ -7591,28 +7593,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R43" t="n">
-        <v>839.6651608782449</v>
+        <v>951.8416272238092</v>
       </c>
       <c r="S43" t="n">
-        <v>839.6651608782449</v>
+        <v>749.0255434063585</v>
       </c>
       <c r="T43" t="n">
-        <v>603.946109046479</v>
+        <v>513.3064915745925</v>
       </c>
       <c r="U43" t="n">
-        <v>318.50731728838</v>
+        <v>513.3064915745925</v>
       </c>
       <c r="V43" t="n">
-        <v>318.50731728838</v>
+        <v>247.3271463954168</v>
       </c>
       <c r="W43" t="n">
-        <v>318.50731728838</v>
+        <v>247.3271463954168</v>
       </c>
       <c r="X43" t="n">
-        <v>318.50731728838</v>
+        <v>247.3271463954168</v>
       </c>
       <c r="Y43" t="n">
-        <v>318.50731728838</v>
+        <v>247.3271463954168</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1339.781895001287</v>
+        <v>840.7357579845172</v>
       </c>
       <c r="C44" t="n">
-        <v>1339.781895001287</v>
+        <v>447.5602564874478</v>
       </c>
       <c r="D44" t="n">
-        <v>954.3407662179543</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E44" t="n">
-        <v>954.3407662179543</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F44" t="n">
-        <v>537.4463277479321</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G44" t="n">
-        <v>509.7331374425881</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H44" t="n">
-        <v>185.6500870090788</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I44" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J44" t="n">
-        <v>47.31297010154361</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K44" t="n">
-        <v>406.2953261290054</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L44" t="n">
-        <v>899.6156178475343</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M44" t="n">
-        <v>1445.616517892115</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N44" t="n">
-        <v>1925.608904184852</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O44" t="n">
-        <v>2365.64850507718</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P44" t="n">
-        <v>2365.64850507718</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q44" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>2327.655591362702</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>2161.142036303753</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T44" t="n">
-        <v>1937.641433863169</v>
+        <v>2996.032391735851</v>
       </c>
       <c r="U44" t="n">
-        <v>1681.888704297768</v>
+        <v>2740.27966217045</v>
       </c>
       <c r="V44" t="n">
-        <v>1339.781895001287</v>
+        <v>2398.172852873969</v>
       </c>
       <c r="W44" t="n">
-        <v>1339.781895001287</v>
+        <v>2027.173817842256</v>
       </c>
       <c r="X44" t="n">
-        <v>1339.781895001287</v>
+        <v>1637.721212775313</v>
       </c>
       <c r="Y44" t="n">
-        <v>1339.781895001287</v>
+        <v>1241.230503695914</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>846.6789532415753</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C45" t="n">
-        <v>696.0247228016675</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D45" t="n">
-        <v>565.9357554231478</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E45" t="n">
-        <v>429.4892645340356</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F45" t="n">
-        <v>305.0574584171674</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G45" t="n">
-        <v>184.9976404890318</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H45" t="n">
-        <v>96.70022408963275</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>367.0521161637701</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L45" t="n">
-        <v>850.6182020620834</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M45" t="n">
-        <v>1374.529131354181</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N45" t="n">
-        <v>1960.027136360783</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O45" t="n">
-        <v>1960.027136360783</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P45" t="n">
-        <v>2365.64850507718</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
-        <v>2365.64850507718</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R45" t="n">
-        <v>2341.731461975245</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S45" t="n">
-        <v>2206.800784875114</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T45" t="n">
-        <v>2029.816973074022</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U45" t="n">
-        <v>1819.753829752664</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V45" t="n">
-        <v>1597.213828123731</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W45" t="n">
-        <v>1367.096582257018</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X45" t="n">
-        <v>1177.789504607029</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y45" t="n">
-        <v>998.4752876825366</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1957.328425202522</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="C46" t="n">
-        <v>1787.123307268512</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="D46" t="n">
-        <v>1631.490194171026</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="E46" t="n">
-        <v>1475.931382030229</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="F46" t="n">
-        <v>1464.201482535628</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="G46" t="n">
-        <v>1464.201482535628</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="H46" t="n">
-        <v>1464.201482535628</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="I46" t="n">
-        <v>1464.201482535628</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="J46" t="n">
-        <v>1464.201482535628</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="K46" t="n">
-        <v>1546.036523645569</v>
+        <v>2286.344403774166</v>
       </c>
       <c r="L46" t="n">
-        <v>1710.164163519369</v>
+        <v>2450.472043647965</v>
       </c>
       <c r="M46" t="n">
-        <v>1896.455741857633</v>
+        <v>2636.763621986229</v>
       </c>
       <c r="N46" t="n">
-        <v>2079.645375888842</v>
+        <v>2819.953256017438</v>
       </c>
       <c r="O46" t="n">
-        <v>2242.350142930551</v>
+        <v>2982.658023059147</v>
       </c>
       <c r="P46" t="n">
-        <v>2362.226308707129</v>
+        <v>3102.534188835725</v>
       </c>
       <c r="Q46" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R46" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S46" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T46" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U46" t="n">
-        <v>2365.64850507718</v>
+        <v>2820.517593447677</v>
       </c>
       <c r="V46" t="n">
-        <v>2365.64850507718</v>
+        <v>2554.538248268502</v>
       </c>
       <c r="W46" t="n">
-        <v>2365.64850507718</v>
+        <v>2271.207846199679</v>
       </c>
       <c r="X46" t="n">
-        <v>2365.64850507718</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="Y46" t="n">
-        <v>2142.536443893824</v>
+        <v>2204.509362664224</v>
       </c>
     </row>
   </sheetData>
@@ -7991,7 +7993,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O2" t="n">
-        <v>545.7463662600596</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P2" t="n">
         <v>150.3014472409252</v>
@@ -8055,19 +8057,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>89.90975703143049</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N3" t="n">
-        <v>676.7842391234617</v>
+        <v>415.8062469585524</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
@@ -8216,7 +8218,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>505.666843611017</v>
+        <v>270.6522400901334</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
@@ -8228,13 +8230,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O5" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8292,25 +8294,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>202.8119771871974</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N6" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O6" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>401.3056843235815</v>
       </c>
       <c r="Q6" t="n">
         <v>90.98815315591399</v>
@@ -8462,10 +8464,10 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>633.9592855728719</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P8" t="n">
         <v>150.3014472409252</v>
@@ -8532,16 +8534,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N9" t="n">
-        <v>85.37211285416666</v>
+        <v>415.8062469585524</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8550,7 +8552,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>98.45345285401062</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8690,7 +8692,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K11" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L11" t="n">
         <v>651.5514946987026</v>
@@ -8702,10 +8704,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O11" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P11" t="n">
-        <v>464.6079711628815</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q11" t="n">
         <v>144.4986984183922</v>
@@ -8775,16 +8777,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N12" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>235.8239269133934</v>
+        <v>235.823926913393</v>
       </c>
       <c r="Q12" t="n">
         <v>90.98815315591399</v>
@@ -8924,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>250.8160946708464</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K14" t="n">
         <v>505.666843611017</v>
@@ -8936,13 +8938,13 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N14" t="n">
-        <v>149.1184913377841</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O14" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P14" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q14" t="n">
         <v>144.4986984183922</v>
@@ -9009,13 +9011,13 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
-        <v>317.5329465084876</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N15" t="n">
-        <v>676.7842391234617</v>
+        <v>415.8062469585524</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9176,7 +9178,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O17" t="n">
-        <v>545.7463662600596</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P17" t="n">
         <v>150.3014472409252</v>
@@ -9243,19 +9245,19 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>454.5321323046934</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N18" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>116.7148101947783</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K20" t="n">
         <v>505.666843611017</v>
@@ -9413,13 +9415,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O20" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P20" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q20" t="n">
-        <v>331.2113854294514</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9483,13 +9485,13 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
-        <v>203.8424305246122</v>
+        <v>317.5329465084872</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9723,7 +9725,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>115.0989755892052</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
         <v>747.7741039759435</v>
@@ -9732,10 +9734,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9954,22 +9956,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>351.8313913012159</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>326.5064297756122</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
         <v>90.98815315591399</v>
@@ -10130,7 +10132,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q29" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R29" t="n">
         <v>102.5176150018526</v>
@@ -10200,10 +10202,10 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>373.1055958271594</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>239.756709922914</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
@@ -10431,10 +10433,10 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>203.8424305246122</v>
       </c>
       <c r="M33" t="n">
-        <v>351.8313913012159</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
         <v>747.7741039759435</v>
@@ -10841,7 +10843,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q38" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R38" t="n">
         <v>102.5176150018526</v>
@@ -11139,22 +11141,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>438.5811111539143</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>373.1055958271594</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
         <v>90.98815315591399</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K44" t="n">
         <v>505.666843611017</v>
@@ -11306,16 +11308,16 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N44" t="n">
-        <v>633.9592855728719</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O44" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P44" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q44" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R44" t="n">
         <v>102.5176150018526</v>
@@ -11376,22 +11378,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>621.5900809302183</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>676.7842391234617</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q45" t="n">
         <v>90.98815315591399</v>
@@ -22565,7 +22567,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>24.7297723195951</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>17.54100829227502</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,31 +22704,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>53.73337658004151</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22750,16 +22752,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>130.3195537952425</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
@@ -22784,19 +22786,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>103.421478775927</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
@@ -22832,22 +22834,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>77.47966017810596</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22948,7 +22950,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>155.7526754391568</v>
@@ -22957,7 +22959,7 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
@@ -22987,19 +22989,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>8.183091759162295</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>100.9668393102437</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
@@ -23018,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>95.76444978932722</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23033,7 +23035,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
@@ -23081,7 +23083,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>46.7763147416606</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
@@ -23224,25 +23226,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>165.708020294746</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>210.2831670182382</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -23255,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
         <v>398.5576896346209</v>
@@ -23273,7 +23275,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I11" t="n">
         <v>136.9537457384598</v>
@@ -23309,10 +23311,10 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
-        <v>221.2655964161775</v>
+        <v>59.85708420411922</v>
       </c>
       <c r="U11" t="n">
-        <v>144.530626958331</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23419,25 +23421,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23461,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>210.2831670182382</v>
       </c>
       <c r="W13" t="n">
         <v>280.4970980481341</v>
@@ -23495,10 +23497,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>88.518398017143</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I14" t="n">
         <v>136.9537457384598</v>
@@ -23540,19 +23542,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>40.34669953907104</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T14" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
         <v>367.2890446813954</v>
@@ -23561,7 +23563,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23674,7 +23676,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J16" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23710,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>210.2831670182382</v>
+        <v>240.3576544903973</v>
       </c>
       <c r="W16" t="n">
         <v>280.4970980481341</v>
@@ -23729,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>227.8352342700394</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>320.8422199291742</v>
+        <v>16.83481595771246</v>
       </c>
       <c r="I17" t="n">
         <v>136.9537457384598</v>
@@ -23786,19 +23788,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -23941,22 +23943,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U19" t="n">
-        <v>106.091862818135</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -23969,25 +23971,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>240.0995685803045</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I20" t="n">
-        <v>34.73863881939539</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,13 +24016,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24029,13 +24031,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>154.0032240193895</v>
@@ -24145,10 +24147,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24175,13 +24177,13 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
         <v>263.319551727384</v>
@@ -24190,10 +24192,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>217.8791233934043</v>
+        <v>66.12369447580221</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24212,19 +24214,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>58.93296098199716</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I23" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>385.5580790162737</v>
+        <v>285.1442170272479</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.04094380275532</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
         <v>168.5030667546707</v>
@@ -24415,22 +24417,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T25" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -24449,19 +24451,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>226.2537185649422</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,13 +24490,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
         <v>253.1952022697474</v>
@@ -24506,10 +24508,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>87.60371089983539</v>
       </c>
     </row>
     <row r="27">
@@ -24601,7 +24603,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
         <v>154.0767819665104</v>
@@ -24619,7 +24621,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I28" t="n">
-        <v>131.7634811092929</v>
+        <v>126.690498613946</v>
       </c>
       <c r="J28" t="n">
         <v>30.07448747215907</v>
@@ -24649,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
         <v>233.3618613134482</v>
@@ -24658,13 +24660,13 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>52.14087645792824</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24683,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
         <v>398.5576896346209</v>
@@ -24698,7 +24700,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
-        <v>113.1702515015885</v>
+        <v>70.26927520960626</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24737,7 +24739,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24838,19 +24840,19 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>131.803927412103</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H31" t="n">
         <v>153.923765528121</v>
@@ -24898,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>100.5400146614479</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
@@ -24914,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>156.655946057637</v>
+        <v>53.29725106586807</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24965,7 +24967,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24974,13 +24976,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
         <v>392.5258019886049</v>
@@ -25075,19 +25077,19 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>152.1665109818903</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>145.6520501842701</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25129,10 +25131,10 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
         <v>280.4970980481341</v>
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>255.7586551515614</v>
+        <v>255.2027182432979</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25202,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
         <v>253.1952022697474</v>
@@ -25217,7 +25219,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>392.5258019886049</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>64.62179719985365</v>
+        <v>3.757295967470014</v>
       </c>
       <c r="D37" t="n">
         <v>154.0767819665104</v>
@@ -25363,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
         <v>282.5844038405181</v>
@@ -25375,10 +25377,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25388,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>381.5867174954989</v>
@@ -25403,10 +25405,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.867748656681783</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25436,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -25454,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>366.0398402640411</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25564,7 +25566,7 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H40" t="n">
-        <v>153.923765528121</v>
+        <v>87.89226682802024</v>
       </c>
       <c r="I40" t="n">
         <v>131.7634811092929</v>
@@ -25597,13 +25599,13 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>83.9115394335042</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
         <v>220.8809405715231</v>
@@ -25631,10 +25633,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25643,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>136.9537457384598</v>
@@ -25673,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U41" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>116.3188702273242</v>
+        <v>340.7989131695826</v>
       </c>
     </row>
     <row r="42">
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>168.5030667546707</v>
@@ -25798,10 +25800,10 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>66.67097120124809</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I43" t="n">
         <v>131.7634811092929</v>
@@ -25831,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>111.0547016821086</v>
       </c>
       <c r="S43" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>280.4970980481341</v>
@@ -25862,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25874,16 +25876,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>381.5950695545864</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,13 +25912,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>112.4408428809519</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25925,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>144.1400749395015</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
         <v>166.5715133615489</v>
@@ -26077,19 +26079,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>165.7080202947457</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>632711.5760390597</v>
+        <v>632711.5760390594</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>632711.5760390599</v>
+        <v>632711.5760390594</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>632711.5760390601</v>
+        <v>632711.5760390597</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>632711.5760390597</v>
+        <v>632711.5760390599</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>632711.5760390599</v>
+        <v>632711.5760390597</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>632711.5760390601</v>
+        <v>632711.5760390598</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>712811.0304812388</v>
+        <v>632711.5760390596</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>712811.0304812388</v>
+        <v>712811.0304812386</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>712811.0304812384</v>
+        <v>712811.0304812386</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>712811.0304812388</v>
+        <v>712811.030481239</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>712811.030481239</v>
+        <v>712811.0304812386</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>712811.0304812384</v>
+        <v>712811.0304812385</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>712811.0304812386</v>
+        <v>712811.0304812384</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>632711.5760390596</v>
+        <v>712811.030481239</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>180687.3047541646</v>
+        <v>180687.3047541645</v>
       </c>
       <c r="C2" t="n">
-        <v>180687.3047541646</v>
+        <v>180687.3047541645</v>
       </c>
       <c r="D2" t="n">
         <v>180687.3047541645</v>
@@ -26326,22 +26328,22 @@
         <v>180687.3047541645</v>
       </c>
       <c r="G2" t="n">
-        <v>180687.3047541646</v>
+        <v>180687.3047541645</v>
       </c>
       <c r="H2" t="n">
-        <v>203556.2798509409</v>
+        <v>180687.3047541645</v>
       </c>
       <c r="I2" t="n">
-        <v>203556.2798509409</v>
+        <v>203556.2798509408</v>
       </c>
       <c r="J2" t="n">
         <v>203556.2798509409</v>
       </c>
       <c r="K2" t="n">
-        <v>203556.2798509409</v>
+        <v>203556.279850941</v>
       </c>
       <c r="L2" t="n">
-        <v>203556.2798509409</v>
+        <v>203556.2798509408</v>
       </c>
       <c r="M2" t="n">
         <v>203556.2798509409</v>
@@ -26353,7 +26355,7 @@
         <v>203556.2798509409</v>
       </c>
       <c r="P2" t="n">
-        <v>180687.3047541646</v>
+        <v>203556.2798509409</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>198195.805991745</v>
+        <v>198195.8059917449</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26381,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>49935.4322074041</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>49215.85294791909</v>
       </c>
       <c r="J3" t="n">
         <v>154739.4343656034</v>
@@ -26433,7 +26435,7 @@
         <v>23353.24319649382</v>
       </c>
       <c r="H4" t="n">
-        <v>26357.40659176976</v>
+        <v>23353.24319649382</v>
       </c>
       <c r="I4" t="n">
         <v>26357.40659176976</v>
@@ -26457,7 +26459,7 @@
         <v>26357.40659176976</v>
       </c>
       <c r="P4" t="n">
-        <v>23353.24319649382</v>
+        <v>26357.40659176976</v>
       </c>
     </row>
     <row r="5">
@@ -26467,28 +26469,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69585.45727717315</v>
+        <v>69585.45727717312</v>
       </c>
       <c r="C5" t="n">
-        <v>69585.45727717315</v>
+        <v>69585.45727717312</v>
       </c>
       <c r="D5" t="n">
-        <v>69585.45727717315</v>
+        <v>69585.45727717312</v>
       </c>
       <c r="E5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="F5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="G5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="H5" t="n">
-        <v>47210.5370551278</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="I5" t="n">
-        <v>47210.5370551278</v>
+        <v>47210.53705512778</v>
       </c>
       <c r="J5" t="n">
         <v>47210.5370551278</v>
@@ -26509,7 +26511,7 @@
         <v>47210.5370551278</v>
       </c>
       <c r="P5" t="n">
-        <v>35957.85727717314</v>
+        <v>47210.5370551278</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-110447.2017112473</v>
       </c>
       <c r="C6" t="n">
+        <v>87748.6042804976</v>
+      </c>
+      <c r="D6" t="n">
         <v>87748.60428049759</v>
-      </c>
-      <c r="D6" t="n">
-        <v>87748.60428049753</v>
       </c>
       <c r="E6" t="n">
         <v>121376.2042804976</v>
       </c>
       <c r="F6" t="n">
-        <v>121376.2042804976</v>
+        <v>121376.2042804975</v>
       </c>
       <c r="G6" t="n">
         <v>121376.2042804976</v>
       </c>
       <c r="H6" t="n">
-        <v>80052.90399663924</v>
+        <v>121376.2042804975</v>
       </c>
       <c r="I6" t="n">
-        <v>129988.3362040434</v>
+        <v>80772.48325612422</v>
       </c>
       <c r="J6" t="n">
-        <v>-24751.0981615601</v>
+        <v>-24751.09816156013</v>
       </c>
       <c r="K6" t="n">
         <v>129988.3362040434</v>
       </c>
       <c r="L6" t="n">
-        <v>129988.3362040434</v>
+        <v>129988.3362040433</v>
       </c>
       <c r="M6" t="n">
         <v>129988.3362040433</v>
       </c>
       <c r="N6" t="n">
-        <v>129988.3362040434</v>
+        <v>129988.3362040433</v>
       </c>
       <c r="O6" t="n">
         <v>129988.3362040433</v>
       </c>
       <c r="P6" t="n">
-        <v>121376.2042804977</v>
+        <v>129988.3362040434</v>
       </c>
     </row>
   </sheetData>
@@ -26787,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="C4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="D4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="E4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="F4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="G4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014439</v>
       </c>
       <c r="J4" t="n">
         <v>776.4890963014441</v>
@@ -26829,7 +26831,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>591.4121262692951</v>
+        <v>776.4890963014441</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27027,10 +27029,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>185.076970032149</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>591.4121262692951</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>185.076970032149</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34711,7 +34713,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O2" t="n">
-        <v>396.1825288359632</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34775,19 +34777,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>7.465299698097147</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N3" t="n">
-        <v>591.4121262692951</v>
+        <v>330.4341341043857</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
@@ -34936,7 +34938,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>362.6084404317796</v>
+        <v>127.593836910896</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
@@ -34948,13 +34950,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O5" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>113.215041853864</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N6" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O6" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>314.2223195042669</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35182,10 +35184,10 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>484.8407942350878</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35252,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>330.4341341043857</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35270,7 +35272,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>7.465299698096623</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,7 +35412,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L11" t="n">
         <v>498.303324968211</v>
@@ -35422,10 +35424,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O11" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P11" t="n">
-        <v>314.3065239219563</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35495,16 +35497,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N12" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>148.7405620940788</v>
+        <v>148.7405620940783</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35644,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>133.1362567285003</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>362.6084404317796</v>
@@ -35656,13 +35658,13 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P14" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35729,13 +35731,13 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>227.4725996515694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N15" t="n">
-        <v>591.4121262692951</v>
+        <v>330.4341341043857</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35896,7 +35898,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>396.1825288359632</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35963,19 +35965,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>362.1450102553815</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>24.02725130588939</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>362.6084404317796</v>
@@ -36133,13 +36135,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P20" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110593</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36203,13 +36205,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>113.782083667694</v>
+        <v>227.4725996515689</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36443,7 +36445,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>22.71185353989332</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
         <v>662.4019911217769</v>
@@ -36452,10 +36454,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>259.444269251904</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>233.8188708867233</v>
       </c>
       <c r="P27" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36850,7 +36852,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36920,10 +36922,10 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>287.7334829729927</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>147.0691510340251</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
@@ -37072,7 +37074,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
@@ -37151,10 +37153,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>113.782083667694</v>
       </c>
       <c r="M33" t="n">
-        <v>259.444269251904</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
         <v>662.4019911217769</v>
@@ -37561,7 +37563,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q38" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37859,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>346.1939891046024</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>662.4019911217769</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K44" t="n">
         <v>362.6084404317796</v>
@@ -38026,16 +38028,16 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N44" t="n">
-        <v>484.8407942350878</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O44" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38096,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>529.2029588809064</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>591.4121262692951</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_2_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_2_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>658006.8213886812</v>
+        <v>652729.0921028107</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2688149.654238724</v>
+        <v>2688149.654238723</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8966943.13846177</v>
+        <v>8966943.138461767</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7742329.814147146</v>
+        <v>7742329.814147148</v>
       </c>
     </row>
     <row r="11">
@@ -661,16 +661,16 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>339.8781563283352</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.7480363891204</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -822,25 +822,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>157.6926523830316</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -901,16 +901,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>349.1920994808573</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>305.6096491809498</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>181.6175645302744</v>
+        <v>115.2540412271705</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>193.3149017795554</v>
       </c>
       <c r="D8" t="n">
-        <v>285.8222677061717</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
@@ -1150,10 +1150,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>53.03638470914581</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>227.248072520634</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,13 +1378,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
-        <v>161.4085122120583</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>68.23960507338029</v>
       </c>
       <c r="W11" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>233.3618613134482</v>
@@ -1587,13 +1587,13 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
-        <v>53.03638470914581</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>95.98918911403649</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,22 +1609,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>320.5127299397338</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.5258019886049</v>
+        <v>87.63195091410584</v>
       </c>
     </row>
     <row r="15">
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>233.3618613134482</v>
@@ -1824,16 +1824,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>22.96189723698674</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>95.98918911403649</v>
       </c>
     </row>
     <row r="17">
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>398.5576896346209</v>
@@ -1861,7 +1861,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
-        <v>304.0074039714618</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>71.52439426232598</v>
       </c>
     </row>
     <row r="18">
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="T19" t="n">
-        <v>66.03149870010068</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>282.5844038405181</v>
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>172.6259255050175</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>120.9738481978125</v>
       </c>
       <c r="Y20" t="n">
         <v>392.5258019886049</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>165.6158245190445</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2332,13 +2332,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>100.4138619890259</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.5258019886049</v>
+        <v>65.81297339824961</v>
       </c>
     </row>
     <row r="24">
@@ -2560,7 +2560,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>398.5576896346209</v>
@@ -2572,10 +2572,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>54.87388890514319</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,13 +2608,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>304.9220910887695</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>5.072982495346882</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>95.98918911403632</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>280.4970980481341</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2809,10 +2809,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
-        <v>66.68447052885355</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>221.2655964161775</v>
@@ -2860,7 +2860,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>355.7325374327614</v>
       </c>
     </row>
     <row r="30">
@@ -2952,16 +2952,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>23.94874802705378</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U31" t="n">
         <v>282.5844038405181</v>
@@ -3012,7 +3012,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>328.2894664296309</v>
+        <v>191.0982260229667</v>
       </c>
       <c r="E32" t="n">
         <v>398.5576896346209</v>
@@ -3046,10 +3046,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
         <v>221.2655964161775</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1.836713037499251</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,16 +3240,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U34" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.287080010985</v>
+        <v>183.9163949520707</v>
       </c>
       <c r="C35" t="n">
         <v>389.2437464820987</v>
@@ -3274,19 +3274,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I35" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>164.7457707872007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>66.03149870010071</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H38" t="n">
-        <v>320.8422199291742</v>
+        <v>148.1329987588729</v>
       </c>
       <c r="I38" t="n">
         <v>136.9537457384598</v>
@@ -3559,19 +3559,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>19.51823875223267</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>66.03149870010071</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
         <v>282.5844038405181</v>
@@ -3723,7 +3723,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>389.2437464820987</v>
+        <v>97.96998581632533</v>
       </c>
       <c r="D41" t="n">
         <v>381.5867174954989</v>
@@ -3757,10 +3757,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H41" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U41" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>51.72688881902223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>11.60727779164018</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3618613134482</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V43" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3982,16 +3982,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4024,25 +4024,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>108.8247535352256</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>355.9466455313268</v>
       </c>
       <c r="Y44" t="n">
         <v>392.5258019886049</v>
@@ -4200,7 +4200,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>66.03149870010103</v>
+        <v>66.03149870010071</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>825.9296003819453</v>
+        <v>1178.648892786852</v>
       </c>
       <c r="C2" t="n">
-        <v>432.7540988848759</v>
+        <v>1178.648892786852</v>
       </c>
       <c r="D2" t="n">
-        <v>47.31297010154359</v>
+        <v>793.2077640035195</v>
       </c>
       <c r="E2" t="n">
-        <v>47.31297010154359</v>
+        <v>390.624239120064</v>
       </c>
       <c r="F2" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G2" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H2" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I2" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J2" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K2" t="n">
-        <v>406.2953261290054</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L2" t="n">
-        <v>899.6156178475343</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M2" t="n">
-        <v>1445.616517892115</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N2" t="n">
-        <v>1973.427801529577</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O2" t="n">
-        <v>2365.648505077179</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P2" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R2" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S2" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T2" t="n">
-        <v>2365.648505077179</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U2" t="n">
-        <v>2365.648505077179</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="V2" t="n">
-        <v>2365.648505077179</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="W2" t="n">
-        <v>2012.367660239684</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="X2" t="n">
-        <v>1622.915055172741</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="Y2" t="n">
-        <v>1226.424346093342</v>
+        <v>1579.143638498249</v>
       </c>
     </row>
     <row r="3">
@@ -4385,67 +4385,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C3" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D3" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E3" t="n">
-        <v>429.4892645340349</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F3" t="n">
-        <v>305.0574584171667</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G3" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H3" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I3" t="n">
-        <v>47.31297010154358</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J3" t="n">
-        <v>47.31297010154358</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K3" t="n">
-        <v>47.31297010154358</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L3" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M3" t="n">
-        <v>1116.377061006459</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N3" t="n">
-        <v>1443.506853769801</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O3" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P3" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R3" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S3" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T3" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U3" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V3" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W3" t="n">
         <v>1367.096582257017</v>
@@ -4454,7 +4454,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y3" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="4">
@@ -4464,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C4" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D4" t="n">
-        <v>847.4030175052487</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E4" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F4" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G4" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H4" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I4" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J4" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K4" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L4" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M4" t="n">
         <v>479.5672294235493</v>
@@ -4518,22 +4518,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T4" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U4" t="n">
-        <v>948.7599926430961</v>
+        <v>553.7554333537225</v>
       </c>
       <c r="V4" t="n">
-        <v>948.7599926430961</v>
+        <v>553.7554333537225</v>
       </c>
       <c r="W4" t="n">
-        <v>948.7599926430961</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="X4" t="n">
-        <v>948.7599926430961</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="Y4" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1568.663050286384</v>
+        <v>1178.648892786852</v>
       </c>
       <c r="C5" t="n">
-        <v>1175.487548789314</v>
+        <v>785.4733912897823</v>
       </c>
       <c r="D5" t="n">
-        <v>1175.487548789314</v>
+        <v>400.03226250645</v>
       </c>
       <c r="E5" t="n">
-        <v>772.9040239058586</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F5" t="n">
-        <v>356.0095854358364</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G5" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H5" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I5" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J5" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K5" t="n">
-        <v>173.6308686433306</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L5" t="n">
-        <v>666.9511603618595</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M5" t="n">
-        <v>1212.95206040644</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="N5" t="n">
-        <v>1740.763344043902</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O5" t="n">
-        <v>2180.802944936231</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P5" t="n">
-        <v>2180.802944936231</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q5" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R5" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S5" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T5" t="n">
-        <v>2365.648505077179</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U5" t="n">
-        <v>2365.648505077179</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="V5" t="n">
-        <v>2365.648505077179</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="W5" t="n">
-        <v>2365.648505077179</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="X5" t="n">
-        <v>2365.648505077179</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="Y5" t="n">
-        <v>1969.157795997781</v>
+        <v>1579.143638498249</v>
       </c>
     </row>
     <row r="6">
@@ -4640,31 +4640,31 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H6" t="n">
-        <v>96.70022408963203</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J6" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K6" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L6" t="n">
-        <v>367.0521161637701</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M6" t="n">
-        <v>952.550121170372</v>
+        <v>1140.164039799289</v>
       </c>
       <c r="N6" t="n">
-        <v>1538.048126176974</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="O6" t="n">
-        <v>2054.568408767955</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P6" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q6" t="n">
         <v>2365.648505077179</v>
@@ -4701,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>202.8717822423411</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C7" t="n">
-        <v>202.8717822423411</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D7" t="n">
-        <v>202.8717822423411</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K7" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L7" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M7" t="n">
         <v>479.5672294235493</v>
@@ -4749,28 +4749,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R7" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S7" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T7" t="n">
-        <v>386.3238676264566</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U7" t="n">
-        <v>202.8717822423411</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V7" t="n">
-        <v>202.8717822423411</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W7" t="n">
-        <v>202.8717822423411</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X7" t="n">
-        <v>202.8717822423411</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y7" t="n">
-        <v>202.8717822423411</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1568.663050286384</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="C8" t="n">
-        <v>1568.663050286384</v>
+        <v>1742.373856308063</v>
       </c>
       <c r="D8" t="n">
-        <v>1279.953688967018</v>
+        <v>1742.373856308063</v>
       </c>
       <c r="E8" t="n">
-        <v>877.3701640835627</v>
+        <v>1339.790331424607</v>
       </c>
       <c r="F8" t="n">
-        <v>460.4757256135405</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154359</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L8" t="n">
-        <v>899.6156178475343</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M8" t="n">
-        <v>1445.616517892115</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N8" t="n">
-        <v>1973.427801529577</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.648505077179</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.648505077179</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.648505077179</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.648505077179</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="V8" t="n">
-        <v>2365.648505077179</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="W8" t="n">
-        <v>2365.648505077179</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="X8" t="n">
-        <v>2365.648505077179</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="Y8" t="n">
-        <v>1969.157795997781</v>
+        <v>1937.641433863169</v>
       </c>
     </row>
     <row r="9">
@@ -4859,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C9" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D9" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E9" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F9" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G9" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H9" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154359</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154359</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="L9" t="n">
-        <v>530.8790559998569</v>
+        <v>643.9940382195844</v>
       </c>
       <c r="M9" t="n">
-        <v>1116.377061006459</v>
+        <v>1229.492043226187</v>
       </c>
       <c r="N9" t="n">
-        <v>1443.506853769801</v>
+        <v>1814.990048232789</v>
       </c>
       <c r="O9" t="n">
-        <v>1960.027136360782</v>
+        <v>2331.51033082377</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.648505077179</v>
+        <v>2331.51033082377</v>
       </c>
       <c r="Q9" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R9" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S9" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T9" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U9" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V9" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W9" t="n">
         <v>1367.096582257017</v>
@@ -4928,7 +4928,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y9" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="10">
@@ -4938,37 +4938,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154359</v>
+        <v>217.5180880355544</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K10" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L10" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M10" t="n">
         <v>479.5672294235493</v>
@@ -4986,28 +4986,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>386.3238676264566</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U10" t="n">
-        <v>100.8850758683575</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="V10" t="n">
-        <v>47.31297010154359</v>
+        <v>447.0615956321544</v>
       </c>
       <c r="W10" t="n">
-        <v>47.31297010154359</v>
+        <v>217.5180880355544</v>
       </c>
       <c r="X10" t="n">
-        <v>47.31297010154359</v>
+        <v>217.5180880355544</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154359</v>
+        <v>217.5180880355544</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>47.31297010154359</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="C11" t="n">
-        <v>47.31297010154359</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="D11" t="n">
-        <v>47.31297010154359</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E11" t="n">
-        <v>47.31297010154359</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F11" t="n">
-        <v>47.31297010154359</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G11" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H11" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I11" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J11" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K11" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L11" t="n">
-        <v>899.6156178475343</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="M11" t="n">
-        <v>1445.616517892115</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N11" t="n">
-        <v>1973.427801529577</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O11" t="n">
-        <v>2365.648505077179</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P11" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q11" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R11" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S11" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T11" t="n">
-        <v>2202.609603852878</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U11" t="n">
-        <v>1946.856874287477</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="V11" t="n">
-        <v>1604.750064990995</v>
+        <v>1650.952723998731</v>
       </c>
       <c r="W11" t="n">
-        <v>1233.751029959283</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="X11" t="n">
-        <v>844.2984248923394</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="Y11" t="n">
-        <v>447.8077158129405</v>
+        <v>1279.953688967018</v>
       </c>
     </row>
     <row r="12">
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C12" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D12" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E12" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F12" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G12" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H12" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I12" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J12" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K12" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="L12" t="n">
-        <v>530.8790559998569</v>
+        <v>530.879055999857</v>
       </c>
       <c r="M12" t="n">
         <v>1116.377061006459</v>
@@ -5138,25 +5138,25 @@
         <v>2218.395348604042</v>
       </c>
       <c r="P12" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q12" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R12" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S12" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T12" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U12" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V12" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W12" t="n">
         <v>1367.096582257017</v>
@@ -5165,7 +5165,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y12" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="13">
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K13" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L13" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M13" t="n">
         <v>479.5672294235493</v>
@@ -5223,28 +5223,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R13" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S13" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T13" t="n">
-        <v>386.3238676264566</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U13" t="n">
-        <v>100.8850758683575</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V13" t="n">
-        <v>47.31297010154359</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="W13" t="n">
-        <v>47.31297010154359</v>
+        <v>144.2717469844088</v>
       </c>
       <c r="X13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1969.157795997781</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="C14" t="n">
-        <v>1575.982294500711</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="D14" t="n">
-        <v>1190.541165717379</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="E14" t="n">
-        <v>787.9576408339233</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="F14" t="n">
-        <v>371.063202363901</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G14" t="n">
-        <v>47.31297010154359</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H14" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I14" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J14" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K14" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L14" t="n">
-        <v>899.6156178475343</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="M14" t="n">
-        <v>1445.616517892115</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N14" t="n">
-        <v>1973.427801529577</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O14" t="n">
-        <v>2365.648505077179</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P14" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q14" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R14" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S14" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T14" t="n">
-        <v>2365.648505077179</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U14" t="n">
-        <v>2365.648505077179</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="V14" t="n">
-        <v>2365.648505077179</v>
+        <v>1633.527538281166</v>
       </c>
       <c r="W14" t="n">
-        <v>2365.648505077179</v>
+        <v>1262.528503249453</v>
       </c>
       <c r="X14" t="n">
-        <v>2365.648505077179</v>
+        <v>873.0758981825103</v>
       </c>
       <c r="Y14" t="n">
-        <v>1969.157795997781</v>
+        <v>784.5587760470498</v>
       </c>
     </row>
     <row r="15">
@@ -5351,16 +5351,16 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H15" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I15" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J15" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K15" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L15" t="n">
         <v>530.8790559998569</v>
@@ -5369,10 +5369,10 @@
         <v>1116.377061006459</v>
       </c>
       <c r="N15" t="n">
-        <v>1443.506853769801</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O15" t="n">
-        <v>1960.027136360782</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P15" t="n">
         <v>2365.648505077179</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C16" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D16" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E16" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F16" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G16" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H16" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I16" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K16" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L16" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M16" t="n">
         <v>479.5672294235493</v>
@@ -5460,28 +5460,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R16" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S16" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T16" t="n">
-        <v>386.3238676264566</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U16" t="n">
-        <v>100.8850758683575</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V16" t="n">
-        <v>77.69124027544164</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="W16" t="n">
-        <v>77.69124027544164</v>
+        <v>144.2717469844088</v>
       </c>
       <c r="X16" t="n">
-        <v>77.69124027544164</v>
+        <v>144.2717469844088</v>
       </c>
       <c r="Y16" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2365.648505077179</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="C17" t="n">
-        <v>1972.47300358011</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="D17" t="n">
-        <v>1587.031874796778</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E17" t="n">
-        <v>1184.448349913322</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F17" t="n">
-        <v>767.5539114432999</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G17" t="n">
-        <v>354.391155931303</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H17" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I17" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J17" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K17" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L17" t="n">
-        <v>899.6156178475343</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="M17" t="n">
-        <v>1445.616517892115</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N17" t="n">
-        <v>1973.427801529577</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O17" t="n">
-        <v>2365.648505077179</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P17" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q17" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R17" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S17" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T17" t="n">
-        <v>2365.648505077179</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="U17" t="n">
-        <v>2365.648505077179</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="V17" t="n">
-        <v>2365.648505077179</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="W17" t="n">
-        <v>2365.648505077179</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="X17" t="n">
-        <v>2365.648505077179</v>
+        <v>1752.695297569654</v>
       </c>
       <c r="Y17" t="n">
-        <v>2365.648505077179</v>
+        <v>1680.448434678415</v>
       </c>
     </row>
     <row r="18">
@@ -5588,31 +5588,31 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H18" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I18" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J18" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K18" t="n">
-        <v>47.31297010154359</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L18" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M18" t="n">
-        <v>1116.377061006459</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N18" t="n">
-        <v>1701.875066013061</v>
+        <v>1849.128222486198</v>
       </c>
       <c r="O18" t="n">
-        <v>1725.662044805891</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P18" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q18" t="n">
         <v>2365.648505077179</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K19" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L19" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M19" t="n">
         <v>479.5672294235493</v>
@@ -5700,7 +5700,7 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S19" t="n">
-        <v>948.7599926430961</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="T19" t="n">
         <v>882.0615091076409</v>
@@ -5712,13 +5712,13 @@
         <v>330.643372170366</v>
       </c>
       <c r="W19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1000.299222104185</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="C20" t="n">
-        <v>607.1237206071157</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="D20" t="n">
-        <v>221.6825918237835</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E20" t="n">
-        <v>221.6825918237835</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F20" t="n">
-        <v>47.31297010154359</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G20" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H20" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I20" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J20" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K20" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L20" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M20" t="n">
-        <v>1445.616517892115</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="N20" t="n">
-        <v>1973.427801529577</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O20" t="n">
-        <v>2365.648505077179</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P20" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q20" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R20" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S20" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T20" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="U20" t="n">
-        <v>2109.895775511778</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="V20" t="n">
-        <v>1767.788966215297</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="W20" t="n">
-        <v>1396.789931183584</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="X20" t="n">
-        <v>1396.789931183584</v>
+        <v>2076.939143757814</v>
       </c>
       <c r="Y20" t="n">
-        <v>1000.299222104185</v>
+        <v>1680.448434678415</v>
       </c>
     </row>
     <row r="21">
@@ -5825,28 +5825,28 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H21" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I21" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J21" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K21" t="n">
-        <v>47.31297010154359</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L21" t="n">
-        <v>272.5108437565968</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M21" t="n">
-        <v>858.0088487631988</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N21" t="n">
-        <v>1443.506853769801</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O21" t="n">
-        <v>1960.027136360782</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P21" t="n">
         <v>2365.648505077179</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>373.1512011330396</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C22" t="n">
-        <v>202.9460831990288</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K22" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L22" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M22" t="n">
         <v>479.5672294235493</v>
@@ -5940,22 +5940,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T22" t="n">
-        <v>948.7599926430961</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U22" t="n">
-        <v>948.7599926430961</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V22" t="n">
-        <v>948.7599926430961</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W22" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X22" t="n">
-        <v>781.4712810076976</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y22" t="n">
-        <v>558.3592198243409</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1798.55083824553</v>
+        <v>2073.376476849992</v>
       </c>
       <c r="C23" t="n">
-        <v>1405.375336748461</v>
+        <v>1680.200975352922</v>
       </c>
       <c r="D23" t="n">
-        <v>1019.934207965129</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E23" t="n">
-        <v>617.350683081673</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F23" t="n">
-        <v>200.4562446116507</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G23" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H23" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I23" t="n">
-        <v>62.1191277041155</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
         <v>206.7689006129436</v>
@@ -6004,37 +6004,37 @@
         <v>2132.883732040977</v>
       </c>
       <c r="O23" t="n">
-        <v>2572.923332933305</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P23" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3067.963471491297</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3067.963471491297</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T23" t="n">
-        <v>3067.963471491297</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="U23" t="n">
-        <v>3067.963471491297</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="V23" t="n">
-        <v>3067.963471491297</v>
+        <v>2540.348973468711</v>
       </c>
       <c r="W23" t="n">
-        <v>2696.964436459585</v>
+        <v>2540.348973468711</v>
       </c>
       <c r="X23" t="n">
-        <v>2595.536293036326</v>
+        <v>2540.348973468711</v>
       </c>
       <c r="Y23" t="n">
-        <v>2199.045583956927</v>
+        <v>2473.871222561389</v>
       </c>
     </row>
     <row r="24">
@@ -6053,10 +6053,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E24" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F24" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G24" t="n">
         <v>199.803798091603</v>
@@ -6065,25 +6065,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I24" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>62.11912770411551</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="L24" t="n">
-        <v>545.6852136024288</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M24" t="n">
-        <v>1173.45686322911</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N24" t="n">
-        <v>1829.234834439669</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O24" t="n">
-        <v>2345.75511703065</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P24" t="n">
         <v>2380.454662679751</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C25" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D25" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E25" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F25" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G25" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H25" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I25" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
         <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878571</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261211</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
         <v>677.5630210573304</v>
@@ -6180,19 +6180,19 @@
         <v>896.8676667102127</v>
       </c>
       <c r="U25" t="n">
-        <v>611.4288749521136</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V25" t="n">
         <v>345.4495297729379</v>
       </c>
       <c r="W25" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X25" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y25" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2397.459527283501</v>
+        <v>1743.363518677915</v>
       </c>
       <c r="C26" t="n">
-        <v>2004.284025786432</v>
+        <v>1350.188017180846</v>
       </c>
       <c r="D26" t="n">
-        <v>1618.8428970031</v>
+        <v>1350.188017180846</v>
       </c>
       <c r="E26" t="n">
-        <v>1216.259372119644</v>
+        <v>947.6044922973904</v>
       </c>
       <c r="F26" t="n">
-        <v>799.3649336496217</v>
+        <v>530.7100538273681</v>
       </c>
       <c r="G26" t="n">
-        <v>386.2021781376249</v>
+        <v>117.5472983153713</v>
       </c>
       <c r="H26" t="n">
-        <v>62.11912770411553</v>
+        <v>117.5472983153713</v>
       </c>
       <c r="I26" t="n">
         <v>62.11912770411553</v>
@@ -6256,22 +6256,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T26" t="n">
-        <v>3105.956385205776</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="U26" t="n">
-        <v>3105.956385205776</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="V26" t="n">
-        <v>3105.956385205776</v>
+        <v>2540.348973468711</v>
       </c>
       <c r="W26" t="n">
-        <v>3105.956385205776</v>
+        <v>2540.348973468711</v>
       </c>
       <c r="X26" t="n">
-        <v>3105.956385205776</v>
+        <v>2540.348973468711</v>
       </c>
       <c r="Y26" t="n">
-        <v>2797.954272994898</v>
+        <v>2143.858264389312</v>
       </c>
     </row>
     <row r="27">
@@ -6314,10 +6314,10 @@
         <v>865.4243596646552</v>
       </c>
       <c r="M27" t="n">
-        <v>1493.196009291336</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.973980501895</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O27" t="n">
         <v>2380.454662679751</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>67.24335244689016</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C28" t="n">
-        <v>67.24335244689016</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D28" t="n">
-        <v>67.24335244689016</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E28" t="n">
-        <v>67.24335244689016</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F28" t="n">
-        <v>67.24335244689016</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G28" t="n">
-        <v>67.24335244689016</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H28" t="n">
-        <v>67.24335244689016</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I28" t="n">
         <v>62.11912770411553</v>
@@ -6408,28 +6408,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R28" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S28" t="n">
-        <v>839.6651608782449</v>
+        <v>866.6073733628029</v>
       </c>
       <c r="T28" t="n">
-        <v>839.6651608782449</v>
+        <v>630.888321531037</v>
       </c>
       <c r="U28" t="n">
-        <v>839.6651608782449</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="V28" t="n">
-        <v>573.6858156990692</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W28" t="n">
-        <v>290.3554136302468</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X28" t="n">
-        <v>290.3554136302468</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y28" t="n">
-        <v>67.24335244689016</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>522.652680240431</v>
+        <v>1164.818808418026</v>
       </c>
       <c r="C29" t="n">
-        <v>129.4771787433615</v>
+        <v>771.6433069209571</v>
       </c>
       <c r="D29" t="n">
-        <v>129.4771787433615</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="E29" t="n">
-        <v>129.4771787433615</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="F29" t="n">
-        <v>129.4771787433615</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="G29" t="n">
-        <v>129.4771787433615</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H29" t="n">
-        <v>129.4771787433615</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I29" t="n">
         <v>62.11912770411553</v>
@@ -6487,28 +6487,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R29" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S29" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T29" t="n">
-        <v>2677.949313991765</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="U29" t="n">
-        <v>2422.196584426364</v>
+        <v>2626.703053199792</v>
       </c>
       <c r="V29" t="n">
-        <v>2080.089775129883</v>
+        <v>2284.59624390331</v>
       </c>
       <c r="W29" t="n">
-        <v>1709.09074009817</v>
+        <v>1913.597208871598</v>
       </c>
       <c r="X29" t="n">
-        <v>1319.638135031227</v>
+        <v>1524.144603804654</v>
       </c>
       <c r="Y29" t="n">
-        <v>923.1474259518279</v>
+        <v>1164.818808418026</v>
       </c>
     </row>
     <row r="30">
@@ -6545,19 +6545,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K30" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L30" t="n">
-        <v>545.6852136024288</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M30" t="n">
-        <v>1173.45686322911</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N30" t="n">
-        <v>1829.234834439669</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O30" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P30" t="n">
         <v>2380.454662679751</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>412.1480133083932</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C31" t="n">
-        <v>241.9428953743824</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D31" t="n">
-        <v>86.30978227689712</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E31" t="n">
-        <v>86.30978227689712</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F31" t="n">
         <v>62.11912770411553</v>
@@ -6651,22 +6651,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T31" t="n">
-        <v>963.5661502456679</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U31" t="n">
-        <v>678.1273584875689</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V31" t="n">
-        <v>412.1480133083932</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W31" t="n">
-        <v>412.1480133083932</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X31" t="n">
-        <v>412.1480133083932</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y31" t="n">
-        <v>412.1480133083932</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2481.961037053796</v>
+        <v>1880.963859200969</v>
       </c>
       <c r="C32" t="n">
-        <v>2088.785535556727</v>
+        <v>1487.7883577039</v>
       </c>
       <c r="D32" t="n">
-        <v>1757.180013910635</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E32" t="n">
-        <v>1354.596489027179</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F32" t="n">
-        <v>937.702050557157</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G32" t="n">
-        <v>524.5392950451601</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H32" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I32" t="n">
         <v>62.11912770411553</v>
@@ -6724,28 +6724,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R32" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S32" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T32" t="n">
-        <v>2882.455782765193</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U32" t="n">
-        <v>2882.455782765193</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="V32" t="n">
-        <v>2882.455782765193</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="W32" t="n">
-        <v>2882.455782765193</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="X32" t="n">
-        <v>2882.455782765193</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="Y32" t="n">
-        <v>2882.455782765193</v>
+        <v>2281.458604912366</v>
       </c>
     </row>
     <row r="33">
@@ -6782,19 +6782,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K33" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L33" t="n">
-        <v>174.7633905351325</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M33" t="n">
-        <v>802.5350401618138</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N33" t="n">
-        <v>1458.313011372373</v>
+        <v>2148.973980501895</v>
       </c>
       <c r="O33" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P33" t="n">
         <v>2380.454662679751</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>678.1273584875689</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C34" t="n">
-        <v>678.1273584875689</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D34" t="n">
-        <v>678.1273584875689</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E34" t="n">
-        <v>676.2720927931252</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F34" t="n">
-        <v>518.9461580060981</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G34" t="n">
-        <v>350.6921041055436</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H34" t="n">
-        <v>195.2135530670377</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I34" t="n">
         <v>62.11912770411553</v>
@@ -6888,22 +6888,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T34" t="n">
-        <v>963.5661502456679</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U34" t="n">
-        <v>678.1273584875689</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V34" t="n">
-        <v>678.1273584875689</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W34" t="n">
-        <v>678.1273584875689</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X34" t="n">
-        <v>678.1273584875689</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y34" t="n">
-        <v>678.1273584875689</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2535.796644191037</v>
+        <v>1164.818808418026</v>
       </c>
       <c r="C35" t="n">
-        <v>2142.621142693967</v>
+        <v>771.6433069209571</v>
       </c>
       <c r="D35" t="n">
-        <v>1757.180013910635</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="E35" t="n">
-        <v>1354.596489027179</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="F35" t="n">
-        <v>937.702050557157</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="G35" t="n">
-        <v>524.5392950451601</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H35" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6961,28 +6961,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3067.963471491298</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T35" t="n">
-        <v>3067.963471491298</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="U35" t="n">
-        <v>3067.963471491298</v>
+        <v>2460.189498140842</v>
       </c>
       <c r="V35" t="n">
-        <v>3067.963471491298</v>
+        <v>2118.082688844361</v>
       </c>
       <c r="W35" t="n">
-        <v>3067.963471491298</v>
+        <v>1747.083653812648</v>
       </c>
       <c r="X35" t="n">
-        <v>2678.510866424355</v>
+        <v>1747.083653812648</v>
       </c>
       <c r="Y35" t="n">
-        <v>2678.510866424355</v>
+        <v>1350.592944733249</v>
       </c>
     </row>
     <row r="36">
@@ -7019,19 +7019,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K36" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L36" t="n">
-        <v>545.6852136024288</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M36" t="n">
-        <v>1173.45686322911</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N36" t="n">
-        <v>1829.234834439669</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O36" t="n">
-        <v>2345.75511703065</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P36" t="n">
         <v>2380.454662679751</v>
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>228.5289971861364</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C37" t="n">
         <v>62.11912770411553</v>
@@ -7119,28 +7119,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R37" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S37" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T37" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U37" t="n">
-        <v>636.8490770607943</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V37" t="n">
-        <v>636.8490770607943</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W37" t="n">
-        <v>636.8490770607943</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X37" t="n">
-        <v>636.8490770607943</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y37" t="n">
-        <v>413.7370158774377</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1330.877552054226</v>
+        <v>1944.448446963134</v>
       </c>
       <c r="C38" t="n">
-        <v>937.702050557157</v>
+        <v>1551.272945466065</v>
       </c>
       <c r="D38" t="n">
-        <v>937.702050557157</v>
+        <v>1165.831816682732</v>
       </c>
       <c r="E38" t="n">
-        <v>937.702050557157</v>
+        <v>763.2482917992768</v>
       </c>
       <c r="F38" t="n">
-        <v>937.702050557157</v>
+        <v>763.2482917992768</v>
       </c>
       <c r="G38" t="n">
-        <v>524.5392950451601</v>
+        <v>350.0855362872799</v>
       </c>
       <c r="H38" t="n">
         <v>200.4562446116507</v>
@@ -7207,19 +7207,19 @@
         <v>2715.942227706244</v>
       </c>
       <c r="U38" t="n">
-        <v>2460.189498140842</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="V38" t="n">
-        <v>2118.082688844361</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="W38" t="n">
-        <v>1747.083653812648</v>
+        <v>2344.943192674531</v>
       </c>
       <c r="X38" t="n">
-        <v>1727.368261133625</v>
+        <v>2344.943192674531</v>
       </c>
       <c r="Y38" t="n">
-        <v>1330.877552054226</v>
+        <v>2344.943192674531</v>
       </c>
     </row>
     <row r="39">
@@ -7256,19 +7256,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L39" t="n">
-        <v>545.6852136024288</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M39" t="n">
-        <v>1173.45686322911</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N39" t="n">
-        <v>1829.234834439669</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O39" t="n">
-        <v>2345.75511703065</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P39" t="n">
         <v>2380.454662679751</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>128.8176112395708</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C40" t="n">
-        <v>128.8176112395708</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D40" t="n">
-        <v>128.8176112395708</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E40" t="n">
-        <v>128.8176112395708</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F40" t="n">
-        <v>128.8176112395708</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G40" t="n">
-        <v>128.8176112395708</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H40" t="n">
         <v>62.11912770411553</v>
@@ -7362,22 +7362,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T40" t="n">
-        <v>963.5661502456679</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U40" t="n">
-        <v>678.1273584875689</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V40" t="n">
-        <v>412.1480133083932</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W40" t="n">
-        <v>128.8176112395708</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X40" t="n">
-        <v>128.8176112395708</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y40" t="n">
-        <v>128.8176112395708</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2397.459527283501</v>
+        <v>1917.49767389311</v>
       </c>
       <c r="C41" t="n">
-        <v>2004.284025786432</v>
+        <v>1818.538092260458</v>
       </c>
       <c r="D41" t="n">
-        <v>1618.8428970031</v>
+        <v>1433.096963477125</v>
       </c>
       <c r="E41" t="n">
-        <v>1216.259372119644</v>
+        <v>1030.51343859367</v>
       </c>
       <c r="F41" t="n">
-        <v>799.3649336496217</v>
+        <v>613.6190001236475</v>
       </c>
       <c r="G41" t="n">
-        <v>386.2021781376249</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="H41" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7435,28 +7435,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S41" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T41" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U41" t="n">
-        <v>2850.203655640375</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="V41" t="n">
-        <v>2850.203655640375</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="W41" t="n">
-        <v>2850.203655640375</v>
+        <v>2306.950278960053</v>
       </c>
       <c r="X41" t="n">
-        <v>2850.203655640375</v>
+        <v>1917.49767389311</v>
       </c>
       <c r="Y41" t="n">
-        <v>2797.954272994898</v>
+        <v>1917.49767389311</v>
       </c>
     </row>
     <row r="42">
@@ -7493,19 +7493,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L42" t="n">
-        <v>545.6852136024288</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M42" t="n">
-        <v>1173.45686322911</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N42" t="n">
-        <v>1458.313011372373</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O42" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P42" t="n">
         <v>2380.454662679751</v>
@@ -7593,28 +7593,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R43" t="n">
-        <v>951.8416272238092</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S43" t="n">
-        <v>749.0255434063585</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T43" t="n">
-        <v>513.3064915745925</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U43" t="n">
-        <v>513.3064915745925</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V43" t="n">
-        <v>247.3271463954168</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W43" t="n">
-        <v>247.3271463954168</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X43" t="n">
-        <v>247.3271463954168</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y43" t="n">
-        <v>247.3271463954168</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>840.7357579845172</v>
+        <v>1687.93534806666</v>
       </c>
       <c r="C44" t="n">
-        <v>447.5602564874478</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="D44" t="n">
-        <v>62.11912770411553</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E44" t="n">
-        <v>62.11912770411553</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F44" t="n">
-        <v>62.11912770411553</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G44" t="n">
         <v>62.11912770411553</v>
@@ -7672,28 +7672,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S44" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T44" t="n">
-        <v>2996.032391735851</v>
+        <v>2844.462869050715</v>
       </c>
       <c r="U44" t="n">
-        <v>2740.27966217045</v>
+        <v>2844.462869050715</v>
       </c>
       <c r="V44" t="n">
-        <v>2398.172852873969</v>
+        <v>2844.462869050715</v>
       </c>
       <c r="W44" t="n">
-        <v>2027.173817842256</v>
+        <v>2844.462869050715</v>
       </c>
       <c r="X44" t="n">
-        <v>1637.721212775313</v>
+        <v>2484.920802857455</v>
       </c>
       <c r="Y44" t="n">
-        <v>1241.230503695914</v>
+        <v>2088.430093778056</v>
       </c>
     </row>
     <row r="45">
@@ -7730,19 +7730,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L45" t="n">
-        <v>545.6852136024288</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M45" t="n">
-        <v>1173.45686322911</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N45" t="n">
-        <v>1829.234834439669</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O45" t="n">
-        <v>2345.75511703065</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P45" t="n">
         <v>2380.454662679751</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C46" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D46" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E46" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F46" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G46" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H46" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I46" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N46" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O46" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P46" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q46" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R46" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S46" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T46" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U46" t="n">
-        <v>2820.517593447677</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V46" t="n">
-        <v>2554.538248268502</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W46" t="n">
-        <v>2271.207846199679</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X46" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y46" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
   </sheetData>
@@ -7978,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>281.3299123769229</v>
       </c>
       <c r="M2" t="n">
         <v>701.2411122488187</v>
@@ -7993,13 +7993,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O2" t="n">
-        <v>545.7463662600587</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8057,19 +8057,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>683.7992483186067</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>415.8062469585524</v>
+        <v>333.2595653118437</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
@@ -8078,7 +8078,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8215,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>270.6522400901334</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>500.9472399802273</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
         <v>331.2113854294513</v>
@@ -8294,28 +8294,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>683.7992483186067</v>
+        <v>270.6001074205022</v>
       </c>
       <c r="N6" t="n">
-        <v>676.7842391234615</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
-        <v>401.3056843235815</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>281.3299123769229</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8467,13 +8467,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>545.7463662600587</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8531,7 +8531,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
         <v>89.59693533333335</v>
@@ -8540,19 +8540,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>415.8062469585524</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>125.4711574522881</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K11" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L11" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M11" t="n">
-        <v>701.2411122488187</v>
+        <v>466.7144144634705</v>
       </c>
       <c r="N11" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O11" t="n">
-        <v>545.7463662600587</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P11" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8777,16 +8777,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N12" t="n">
-        <v>676.7842391234615</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>235.823926913393</v>
+        <v>235.8239269133934</v>
       </c>
       <c r="Q12" t="n">
         <v>90.98815315591399</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K14" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L14" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M14" t="n">
-        <v>701.2411122488187</v>
+        <v>466.7144144634705</v>
       </c>
       <c r="N14" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O14" t="n">
-        <v>545.7463662600587</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P14" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9014,16 +9014,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N15" t="n">
-        <v>415.8062469585524</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>235.8239269133925</v>
       </c>
       <c r="Q15" t="n">
         <v>90.98815315591399</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K17" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L17" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M17" t="n">
-        <v>701.2411122488187</v>
+        <v>466.7144144634705</v>
       </c>
       <c r="N17" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O17" t="n">
-        <v>545.7463662600587</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P17" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9242,28 +9242,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N18" t="n">
-        <v>676.7842391234615</v>
+        <v>388.298409013546</v>
       </c>
       <c r="O18" t="n">
-        <v>116.7148101947783</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K20" t="n">
         <v>505.666843611017</v>
@@ -9409,19 +9409,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M20" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N20" t="n">
-        <v>682.2612020826953</v>
+        <v>500.9472399802273</v>
       </c>
       <c r="O20" t="n">
-        <v>545.7463662600587</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P20" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9479,25 +9479,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>317.5329465084872</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N21" t="n">
-        <v>676.7842391234615</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>325.9393879617821</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
         <v>90.98815315591399</v>
@@ -9719,7 +9719,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>124.646981443537</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
@@ -9734,7 +9734,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>122.133410929518</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
         <v>90.98815315591399</v>
@@ -9962,13 +9962,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>438.5811111539143</v>
       </c>
       <c r="N27" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>326.5064297756122</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
         <v>87.08336481931465</v>
@@ -10132,7 +10132,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q29" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R29" t="n">
         <v>102.5176150018526</v>
@@ -10193,7 +10193,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
@@ -10202,13 +10202,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>459.8553156798577</v>
       </c>
       <c r="O30" t="n">
-        <v>239.756709922914</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
         <v>90.98815315591399</v>
@@ -10430,10 +10430,10 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
         <v>726.4998994499999</v>
@@ -10442,10 +10442,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>326.5064297756122</v>
       </c>
       <c r="P33" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q33" t="n">
         <v>90.98815315591399</v>
@@ -10606,7 +10606,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q35" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R35" t="n">
         <v>102.5176150018526</v>
@@ -10667,13 +10667,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>438.5811111539143</v>
       </c>
       <c r="N36" t="n">
         <v>747.7741039759435</v>
@@ -10682,7 +10682,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>122.133410929518</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q36" t="n">
         <v>90.98815315591399</v>
@@ -10904,7 +10904,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
@@ -10913,13 +10913,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>459.8553156798577</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>122.133410929518</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
         <v>90.98815315591399</v>
@@ -11077,7 +11077,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P41" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475131</v>
       </c>
       <c r="Q41" t="n">
         <v>331.2113854294513</v>
@@ -11141,22 +11141,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>438.5811111539143</v>
       </c>
       <c r="N42" t="n">
-        <v>373.1055958271594</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q42" t="n">
         <v>90.98815315591399</v>
@@ -11378,7 +11378,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
@@ -11387,13 +11387,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>459.8553156798577</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>122.133410929518</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
         <v>90.98815315591399</v>
@@ -22549,16 +22549,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>72.8473377569868</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
@@ -22597,10 +22597,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
@@ -22609,10 +22609,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>17.54100829227502</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22710,25 +22710,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22758,22 +22758,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>124.8917514574865</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22789,16 +22789,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>49.36559015376355</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>103.421478775927</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
@@ -22834,10 +22834,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
@@ -22950,7 +22950,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
         <v>155.7526754391568</v>
@@ -22989,22 +22989,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>100.9668393102437</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -23020,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>195.9288447025432</v>
       </c>
       <c r="D8" t="n">
-        <v>95.76444978932722</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23038,10 +23038,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,13 +23068,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
@@ -23089,7 +23089,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -23181,7 +23181,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
@@ -23226,22 +23226,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>210.2831670182382</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>53.24902552750015</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
         <v>389.2437464820987</v>
@@ -23266,13 +23266,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>320.8422199291742</v>
@@ -23308,25 +23308,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>59.85708420411922</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>270.4461361301365</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>210.2831670182382</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>231.7395189948467</v>
+        <v>135.7503298808102</v>
       </c>
       <c r="Y13" t="n">
         <v>220.8809405715231</v>
@@ -23497,22 +23497,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>88.518398017143</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>136.9537457384598</v>
@@ -23545,25 +23545,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>304.893851074499</v>
       </c>
     </row>
     <row r="15">
@@ -23676,7 +23676,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>240.3576544903973</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
-        <v>220.8809405715231</v>
+        <v>124.8917514574866</v>
       </c>
     </row>
     <row r="17">
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>16.83481595771246</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I17" t="n">
         <v>136.9537457384598</v>
@@ -23785,7 +23785,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>253.1952022697474</v>
@@ -23797,10 +23797,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>321.0014077262789</v>
       </c>
     </row>
     <row r="18">
@@ -23940,10 +23940,10 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>200.7879229792761</v>
+        <v>134.7564242791754</v>
       </c>
       <c r="T19" t="n">
-        <v>167.3303626133475</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>240.0995685803045</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>320.8422199291742</v>
@@ -24019,22 +24019,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>264.5842308184612</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
         <v>154.0032240193895</v>
@@ -24180,22 +24180,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>66.12369447580221</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>285.1442170272479</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>326.7128285903553</v>
       </c>
     </row>
     <row r="24">
@@ -24448,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I26" t="n">
-        <v>136.9537457384598</v>
+        <v>82.07985683331663</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,13 +24496,13 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>367.2890446813954</v>
@@ -24511,7 +24511,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>87.60371089983539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24621,7 +24621,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I28" t="n">
-        <v>126.690498613946</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J28" t="n">
         <v>30.07448747215907</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S28" t="n">
-        <v>200.7879229792761</v>
+        <v>104.7987338652398</v>
       </c>
       <c r="T28" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>398.5576896346209</v>
@@ -24697,10 +24697,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>70.26927520960626</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,10 +24727,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>36.79326455584345</v>
       </c>
     </row>
     <row r="30">
@@ -24840,16 +24840,16 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>131.803927412103</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
         <v>166.5715133615489</v>
@@ -24891,7 +24891,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T31" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
@@ -24922,7 +24922,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>53.29725106586807</v>
+        <v>190.4884914725322</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24934,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,10 +24964,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25083,19 +25083,19 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>152.1665109818903</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J34" t="n">
         <v>30.07448747215907</v>
@@ -25128,16 +25128,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T34" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>231.7395189948467</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>255.2027182432979</v>
+        <v>212.5734033022122</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25162,19 +25162,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
-        <v>3.757295967470014</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
         <v>154.0767819665104</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>165.708020294746</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -25390,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>412.725494085322</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>172.7092211703013</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25447,19 +25447,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>366.0398402640411</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -25566,7 +25566,7 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H40" t="n">
-        <v>87.89226682802024</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I40" t="n">
         <v>131.7634811092929</v>
@@ -25602,7 +25602,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="X40" t="n">
         <v>231.7395189948467</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>291.2737606657734</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I41" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V41" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>340.7989131695826</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
         <v>168.5030667546707</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>111.0547016821086</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>231.7395189948467</v>
@@ -25870,16 +25870,16 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>320.8422199291742</v>
@@ -25912,25 +25912,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T44" t="n">
-        <v>112.4408428809519</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>29.61143348494693</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>165.7080202947457</v>
+        <v>165.708020294746</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>632711.5760390594</v>
+        <v>632711.5760390599</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>632711.5760390594</v>
+        <v>632711.5760390599</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>632711.5760390597</v>
+        <v>632711.5760390598</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>632711.5760390597</v>
+        <v>632711.5760390601</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>632711.5760390596</v>
+        <v>632711.5760390599</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>712811.0304812386</v>
+        <v>712811.030481239</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>712811.0304812386</v>
+        <v>712811.0304812385</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>712811.0304812385</v>
+        <v>712811.030481239</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>712811.0304812384</v>
+        <v>712811.0304812386</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>712811.030481239</v>
+        <v>712811.0304812388</v>
       </c>
     </row>
   </sheetData>
@@ -26319,31 +26319,31 @@
         <v>180687.3047541645</v>
       </c>
       <c r="D2" t="n">
-        <v>180687.3047541645</v>
+        <v>180687.3047541646</v>
       </c>
       <c r="E2" t="n">
         <v>180687.3047541646</v>
       </c>
       <c r="F2" t="n">
-        <v>180687.3047541645</v>
+        <v>180687.3047541646</v>
       </c>
       <c r="G2" t="n">
-        <v>180687.3047541645</v>
+        <v>180687.3047541646</v>
       </c>
       <c r="H2" t="n">
         <v>180687.3047541645</v>
       </c>
       <c r="I2" t="n">
-        <v>203556.2798509408</v>
+        <v>203556.2798509409</v>
       </c>
       <c r="J2" t="n">
         <v>203556.2798509409</v>
       </c>
       <c r="K2" t="n">
-        <v>203556.279850941</v>
+        <v>203556.2798509409</v>
       </c>
       <c r="L2" t="n">
-        <v>203556.2798509408</v>
+        <v>203556.2798509409</v>
       </c>
       <c r="M2" t="n">
         <v>203556.2798509409</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>198195.8059917449</v>
+        <v>198195.805991745</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26469,28 +26469,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="C5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="D5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="F5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="G5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="H5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="I5" t="n">
-        <v>47210.53705512778</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="J5" t="n">
         <v>47210.5370551278</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-110447.2017112473</v>
+        <v>-111121.2278374674</v>
       </c>
       <c r="C6" t="n">
-        <v>87748.6042804976</v>
+        <v>87074.57815427752</v>
       </c>
       <c r="D6" t="n">
-        <v>87748.60428049759</v>
+        <v>87074.57815427758</v>
       </c>
       <c r="E6" t="n">
-        <v>121376.2042804976</v>
+        <v>120702.1781542776</v>
       </c>
       <c r="F6" t="n">
-        <v>121376.2042804975</v>
+        <v>120702.1781542776</v>
       </c>
       <c r="G6" t="n">
-        <v>121376.2042804976</v>
+        <v>120702.1781542776</v>
       </c>
       <c r="H6" t="n">
-        <v>121376.2042804975</v>
+        <v>120702.1781542775</v>
       </c>
       <c r="I6" t="n">
-        <v>80772.48325612422</v>
+        <v>80241.38822425906</v>
       </c>
       <c r="J6" t="n">
-        <v>-24751.09816156013</v>
+        <v>-25282.19319342532</v>
       </c>
       <c r="K6" t="n">
-        <v>129988.3362040434</v>
+        <v>129457.2411721782</v>
       </c>
       <c r="L6" t="n">
-        <v>129988.3362040433</v>
+        <v>129457.2411721781</v>
       </c>
       <c r="M6" t="n">
-        <v>129988.3362040433</v>
+        <v>129457.2411721782</v>
       </c>
       <c r="N6" t="n">
-        <v>129988.3362040433</v>
+        <v>129457.2411721781</v>
       </c>
       <c r="O6" t="n">
-        <v>129988.3362040433</v>
+        <v>129457.2411721782</v>
       </c>
       <c r="P6" t="n">
-        <v>129988.3362040434</v>
+        <v>129457.2411721781</v>
       </c>
     </row>
   </sheetData>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="C4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="D4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="E4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="F4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="G4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="H4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014439</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
         <v>776.4890963014441</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34698,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>128.0817426464313</v>
       </c>
       <c r="M2" t="n">
         <v>551.5160606510915</v>
@@ -34713,13 +34713,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O2" t="n">
-        <v>396.1825288359623</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,19 +34777,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>330.4341341043857</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
@@ -34798,7 +34798,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>127.593836910896</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>351.8287486424433</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
         <v>186.7126870110591</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>591.4121262692948</v>
+        <v>178.2129853711903</v>
       </c>
       <c r="N6" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>314.2223195042669</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>128.0817426464313</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35187,13 +35187,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>396.1825288359623</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35260,19 +35260,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>330.4341341043857</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>34.48300429637414</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K11" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L11" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>551.5160606510915</v>
+        <v>316.9893628657432</v>
       </c>
       <c r="N11" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O11" t="n">
-        <v>396.1825288359623</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35497,16 +35497,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N12" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>148.7405620940783</v>
+        <v>148.7405620940788</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K14" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L14" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>551.5160606510915</v>
+        <v>316.9893628657432</v>
       </c>
       <c r="N14" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
-        <v>396.1825288359623</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35734,16 +35734,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N15" t="n">
-        <v>330.4341341043857</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>148.7405620940779</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K17" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L17" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>551.5160606510915</v>
+        <v>316.9893628657432</v>
       </c>
       <c r="N17" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>396.1825288359623</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N18" t="n">
-        <v>591.4121262692948</v>
+        <v>302.9262961593793</v>
       </c>
       <c r="O18" t="n">
-        <v>24.02725130588939</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K20" t="n">
         <v>362.6084404317796</v>
@@ -36129,19 +36129,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M20" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>533.1427107449111</v>
+        <v>351.8287486424433</v>
       </c>
       <c r="O20" t="n">
-        <v>396.1825288359623</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>227.4725996515689</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N21" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>233.2518290728932</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>35.0500461102036</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
@@ -36454,7 +36454,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>35.05004611020335</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36682,13 +36682,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>346.1939891046024</v>
       </c>
       <c r="N27" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>233.8188708867233</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36852,7 +36852,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
@@ -36922,13 +36922,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>374.483202825691</v>
       </c>
       <c r="O30" t="n">
-        <v>147.0691510340251</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37074,7 +37074,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>498.3033249682109</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
@@ -37150,10 +37150,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
         <v>634.1127774006881</v>
@@ -37162,10 +37162,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>233.8188708867233</v>
       </c>
       <c r="P33" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37326,7 +37326,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q35" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37387,13 +37387,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>346.1939891046024</v>
       </c>
       <c r="N36" t="n">
         <v>662.4019911217769</v>
@@ -37402,7 +37402,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>35.05004611020335</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
@@ -37633,13 +37633,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>374.483202825691</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>35.05004611020335</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37797,7 +37797,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P41" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q41" t="n">
         <v>186.7126870110591</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>346.1939891046024</v>
       </c>
       <c r="N42" t="n">
-        <v>287.7334829729927</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
@@ -38107,13 +38107,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>374.483202825691</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>35.05004611020335</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
